--- a/Quenya_Varda packet format.xlsx
+++ b/Quenya_Varda packet format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="821">
   <si>
     <t>VERSION</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,10 +1283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SequenceNumber[15:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEPID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7168,6 +7164,14 @@
       </rPr>
       <t>侧有效</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceNumber[15:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer to OLP TX Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8487,6 +8491,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8506,15 +8519,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9518,7 +9522,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="126" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="127"/>
@@ -9529,10 +9533,10 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
       <c r="B2" s="98" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" s="129" t="s">
         <v>700</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>701</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -9542,7 +9546,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
       <c r="B3" s="98" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C3" s="131">
         <v>43410</v>
@@ -9555,10 +9559,10 @@
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95"/>
       <c r="B4" s="99" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" s="133" t="s">
         <v>704</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>705</v>
       </c>
       <c r="D4" s="133"/>
       <c r="E4" s="133"/>
@@ -9575,7 +9579,7 @@
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95"/>
       <c r="B9" s="123" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C9" s="124"/>
       <c r="D9" s="125"/>
@@ -9583,13 +9587,13 @@
     <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95"/>
       <c r="B10" s="100" t="s">
+        <v>711</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="102" t="s">
-        <v>713</v>
-      </c>
       <c r="D10" s="105" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -9598,66 +9602,66 @@
         <v>37</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="95"/>
       <c r="B12" s="18"/>
       <c r="C12" s="59" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="95"/>
       <c r="B13" s="18"/>
       <c r="C13" s="59" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="95"/>
       <c r="B14" s="18"/>
       <c r="C14" s="59" t="s">
+        <v>716</v>
+      </c>
+      <c r="D14" s="106" t="s">
         <v>717</v>
-      </c>
-      <c r="D14" s="106" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="95"/>
       <c r="B15" s="94" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="106" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="95"/>
       <c r="B16" s="94" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="106" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="95"/>
       <c r="B17" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="106"/>
@@ -9665,7 +9669,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="95"/>
       <c r="B18" s="94" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="106"/>
@@ -9677,13 +9681,13 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="106" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="95"/>
       <c r="B20" s="93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="106"/>
@@ -9691,7 +9695,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="95"/>
       <c r="B21" s="93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="106"/>
@@ -9702,7 +9706,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D22" s="107"/>
     </row>
@@ -9710,7 +9714,7 @@
       <c r="A23" s="95"/>
       <c r="B23" s="93"/>
       <c r="C23" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D23" s="107"/>
     </row>
@@ -9718,7 +9722,7 @@
       <c r="A24" s="95"/>
       <c r="B24" s="93"/>
       <c r="C24" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D24" s="107"/>
       <c r="E24" s="30"/>
@@ -9727,7 +9731,7 @@
       <c r="A25" s="95"/>
       <c r="B25" s="93"/>
       <c r="C25" s="60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D25" s="107"/>
     </row>
@@ -9735,7 +9739,7 @@
       <c r="A26" s="95"/>
       <c r="B26" s="93"/>
       <c r="C26" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D26" s="107"/>
     </row>
@@ -9743,7 +9747,7 @@
       <c r="A27" s="95"/>
       <c r="B27" s="93"/>
       <c r="C27" s="60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D27" s="107"/>
     </row>
@@ -9751,7 +9755,7 @@
       <c r="A28" s="95"/>
       <c r="B28" s="93"/>
       <c r="C28" s="60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D28" s="107"/>
     </row>
@@ -9761,7 +9765,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D29" s="107"/>
     </row>
@@ -9769,7 +9773,7 @@
       <c r="A30" s="95"/>
       <c r="B30" s="93"/>
       <c r="C30" s="60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D30" s="107"/>
     </row>
@@ -9777,7 +9781,7 @@
       <c r="A31" s="95"/>
       <c r="B31" s="93"/>
       <c r="C31" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D31" s="107"/>
     </row>
@@ -9785,7 +9789,7 @@
       <c r="A32" s="95"/>
       <c r="B32" s="93"/>
       <c r="C32" s="60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D32" s="107"/>
     </row>
@@ -9793,7 +9797,7 @@
       <c r="A33" s="95"/>
       <c r="B33" s="93"/>
       <c r="C33" s="60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D33" s="107"/>
     </row>
@@ -9801,7 +9805,7 @@
       <c r="A34" s="95"/>
       <c r="B34" s="93"/>
       <c r="C34" s="60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D34" s="107"/>
     </row>
@@ -9809,7 +9813,7 @@
       <c r="A35" s="95"/>
       <c r="B35" s="93"/>
       <c r="C35" s="60" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D35" s="107"/>
     </row>
@@ -9817,7 +9821,7 @@
       <c r="A36" s="95"/>
       <c r="B36" s="93"/>
       <c r="C36" s="60" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D36" s="107"/>
     </row>
@@ -9825,7 +9829,7 @@
       <c r="A37" s="95"/>
       <c r="B37" s="96"/>
       <c r="C37" s="97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D37" s="108"/>
     </row>
@@ -9838,7 +9842,7 @@
     </row>
     <row r="43" spans="1:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B43" s="120" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C43" s="121"/>
       <c r="D43" s="121"/>
@@ -9847,16 +9851,16 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="73" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C44" s="74" t="s">
+        <v>706</v>
+      </c>
+      <c r="D44" s="75" t="s">
         <v>707</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="E44" s="76" t="s">
         <v>708</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:6" thickTop="1" x14ac:dyDescent="0.2">
@@ -9864,7 +9868,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D45" s="82"/>
       <c r="E45" s="83"/>
@@ -9960,7 +9964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -9993,41 +9997,41 @@
       <c r="A7" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="149" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="145" t="s">
-        <v>724</v>
+      <c r="D7" s="148" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="138"/>
-      <c r="B8" s="147"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="148"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="148" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="151" t="s">
         <v>139</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="138" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="138"/>
-      <c r="B10" s="147"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="25" t="s">
         <v>129</v>
       </c>
@@ -10035,9 +10039,9 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="138" t="s">
-        <v>433</v>
-      </c>
-      <c r="B11" s="149" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="152" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -10049,7 +10053,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="138"/>
-      <c r="B12" s="150"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="26" t="s">
         <v>131</v>
       </c>
@@ -10057,7 +10061,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
-      <c r="B13" s="150"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="8" t="s">
         <v>132</v>
       </c>
@@ -10065,7 +10069,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="138"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="28" t="s">
         <v>134</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>130</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -10137,7 +10141,7 @@
       <c r="A21" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="145" t="s">
         <v>137</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -10149,7 +10153,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="140"/>
-      <c r="B22" s="153"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="8" t="s">
         <v>132</v>
       </c>
@@ -10157,7 +10161,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="141"/>
-      <c r="B23" s="154"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="28" t="s">
         <v>141</v>
       </c>
@@ -10167,7 +10171,7 @@
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="114" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="115"/>
@@ -10175,7 +10179,7 @@
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="135" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B27" s="136"/>
       <c r="C27" s="136"/>
@@ -10183,7 +10187,7 @@
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="135" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B28" s="136"/>
       <c r="C28" s="136"/>
@@ -10191,7 +10195,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="135" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B29" s="136"/>
       <c r="C29" s="136"/>
@@ -10229,8 +10233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ215" sqref="AJ215"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL158" sqref="AL158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11338,7 +11342,7 @@
     </row>
     <row r="18" spans="2:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="190" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C18" s="190"/>
       <c r="D18" s="190"/>
@@ -11359,7 +11363,7 @@
       </c>
       <c r="N18" s="186"/>
       <c r="O18" s="197" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P18" s="198"/>
       <c r="Q18" s="198"/>
@@ -11371,7 +11375,7 @@
       <c r="W18" s="198"/>
       <c r="X18" s="199"/>
       <c r="Y18" s="191" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z18" s="192"/>
       <c r="AA18" s="192"/>
@@ -11388,7 +11392,7 @@
       <c r="D19" s="190"/>
       <c r="E19" s="190"/>
       <c r="F19" s="183" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G19" s="184"/>
       <c r="H19" s="184"/>
@@ -11413,7 +11417,7 @@
       <c r="W19" s="201"/>
       <c r="X19" s="202"/>
       <c r="Y19" s="194" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z19" s="195"/>
       <c r="AA19" s="195"/>
@@ -14633,7 +14637,7 @@
       </c>
       <c r="N89" s="138"/>
       <c r="O89" s="209" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P89" s="210"/>
       <c r="Q89" s="210"/>
@@ -14742,17 +14746,17 @@
       <c r="AG91" s="210"/>
     </row>
     <row r="92" spans="2:34" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="145" t="s">
+      <c r="B92" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="145"/>
-      <c r="D92" s="145"/>
-      <c r="E92" s="145"/>
-      <c r="F92" s="145"/>
-      <c r="G92" s="145"/>
-      <c r="H92" s="145"/>
-      <c r="I92" s="145"/>
-      <c r="J92" s="145"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="148"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="148"/>
       <c r="K92" s="138">
         <v>37</v>
       </c>
@@ -16163,7 +16167,7 @@
     </row>
     <row r="124" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="158" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C124" s="158"/>
       <c r="D124" s="158"/>
@@ -16338,13 +16342,13 @@
         <v>0</v>
       </c>
       <c r="AJ125" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AK125" s="43">
         <v>6</v>
       </c>
       <c r="AL125" s="54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -16352,7 +16356,7 @@
         <v>205</v>
       </c>
       <c r="B126" s="159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C126" s="159"/>
       <c r="D126" s="159"/>
@@ -16386,13 +16390,13 @@
       <c r="AF126" s="159"/>
       <c r="AG126" s="159"/>
       <c r="AJ126" s="43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AK126" s="43">
         <v>6</v>
       </c>
       <c r="AL126" s="54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="127" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -16400,7 +16404,7 @@
         <v>206</v>
       </c>
       <c r="B127" s="159" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C127" s="159"/>
       <c r="D127" s="159"/>
@@ -16418,7 +16422,7 @@
       <c r="P127" s="159"/>
       <c r="Q127" s="159"/>
       <c r="R127" s="159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S127" s="159"/>
       <c r="T127" s="159"/>
@@ -16436,13 +16440,13 @@
       <c r="AF127" s="159"/>
       <c r="AG127" s="159"/>
       <c r="AJ127" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK127" s="43">
         <v>2</v>
       </c>
       <c r="AL127" s="54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -16450,7 +16454,7 @@
         <v>207</v>
       </c>
       <c r="B128" s="159" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C128" s="159"/>
       <c r="D128" s="159"/>
@@ -16484,13 +16488,13 @@
       <c r="AF128" s="159"/>
       <c r="AG128" s="159"/>
       <c r="AJ128" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AK128" s="43">
         <v>2</v>
       </c>
       <c r="AL128" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -16498,7 +16502,7 @@
         <v>208</v>
       </c>
       <c r="B129" s="160" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C129" s="160"/>
       <c r="D129" s="160"/>
@@ -16534,13 +16538,13 @@
       <c r="AF129" s="161"/>
       <c r="AG129" s="161"/>
       <c r="AJ129" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AK129" s="43">
         <v>2</v>
       </c>
       <c r="AL129" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -16548,7 +16552,7 @@
         <v>209</v>
       </c>
       <c r="B130" s="168" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C130" s="169"/>
       <c r="D130" s="169"/>
@@ -16582,13 +16586,13 @@
       <c r="AF130" s="163"/>
       <c r="AG130" s="164"/>
       <c r="AJ130" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AK130" s="13">
         <v>20</v>
       </c>
       <c r="AL130" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -16596,7 +16600,7 @@
         <v>210</v>
       </c>
       <c r="B131" s="162" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C131" s="163"/>
       <c r="D131" s="163"/>
@@ -16630,13 +16634,13 @@
       <c r="AF131" s="165"/>
       <c r="AG131" s="166"/>
       <c r="AJ131" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK131" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="AK131" s="13" t="s">
+      <c r="AL131" s="17" t="s">
         <v>697</v>
-      </c>
-      <c r="AL131" s="17" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -16801,10 +16805,10 @@
     </row>
     <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="155" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B136" s="156" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C136" s="156"/>
       <c r="D136" s="156"/>
@@ -17059,7 +17063,7 @@
     </row>
     <row r="144" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="158" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C144" s="158"/>
       <c r="D144" s="158"/>
@@ -17234,13 +17238,13 @@
         <v>0</v>
       </c>
       <c r="AJ145" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AK145" s="43">
         <v>6</v>
       </c>
       <c r="AL145" s="54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="146" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -17248,7 +17252,7 @@
         <v>205</v>
       </c>
       <c r="B146" s="159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C146" s="159"/>
       <c r="D146" s="159"/>
@@ -17282,13 +17286,13 @@
       <c r="AF146" s="159"/>
       <c r="AG146" s="159"/>
       <c r="AJ146" s="43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AK146" s="43">
         <v>6</v>
       </c>
       <c r="AL146" s="54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="147" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -17296,7 +17300,7 @@
         <v>206</v>
       </c>
       <c r="B147" s="159" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C147" s="159"/>
       <c r="D147" s="159"/>
@@ -17314,7 +17318,7 @@
       <c r="P147" s="159"/>
       <c r="Q147" s="159"/>
       <c r="R147" s="159" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S147" s="159"/>
       <c r="T147" s="159"/>
@@ -17332,13 +17336,13 @@
       <c r="AF147" s="159"/>
       <c r="AG147" s="159"/>
       <c r="AJ147" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK147" s="43">
         <v>2</v>
       </c>
       <c r="AL147" s="54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -17346,7 +17350,7 @@
         <v>207</v>
       </c>
       <c r="B148" s="159" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C148" s="159"/>
       <c r="D148" s="159"/>
@@ -17380,13 +17384,13 @@
       <c r="AF148" s="159"/>
       <c r="AG148" s="159"/>
       <c r="AJ148" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AK148" s="43">
         <v>2</v>
       </c>
       <c r="AL148" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -17394,7 +17398,7 @@
         <v>208</v>
       </c>
       <c r="B149" s="160" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C149" s="160"/>
       <c r="D149" s="160"/>
@@ -17430,13 +17434,13 @@
       <c r="AF149" s="160"/>
       <c r="AG149" s="160"/>
       <c r="AJ149" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AK149" s="43">
         <v>2</v>
       </c>
       <c r="AL149" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="150" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -17444,7 +17448,7 @@
         <v>209</v>
       </c>
       <c r="B150" s="178" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C150" s="178"/>
       <c r="D150" s="178"/>
@@ -17478,13 +17482,13 @@
       <c r="AF150" s="68"/>
       <c r="AG150" s="69"/>
       <c r="AJ150" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AK150" s="13">
         <v>16</v>
       </c>
       <c r="AL150" s="17" t="s">
-        <v>695</v>
+        <v>820</v>
       </c>
     </row>
     <row r="151" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -17492,7 +17496,7 @@
         <v>210</v>
       </c>
       <c r="B151" s="175" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C151" s="176"/>
       <c r="D151" s="176"/>
@@ -17526,13 +17530,13 @@
       <c r="AF151" s="176"/>
       <c r="AG151" s="177"/>
       <c r="AJ151" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK151" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="AK151" s="13" t="s">
+      <c r="AL151" s="17" t="s">
         <v>697</v>
-      </c>
-      <c r="AL151" s="17" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="152" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -17648,10 +17652,10 @@
     </row>
     <row r="155" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="155" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B155" s="157" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C155" s="157"/>
       <c r="D155" s="157"/>
@@ -17827,7 +17831,7 @@
     </row>
     <row r="164" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B164" s="158" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C164" s="158"/>
       <c r="D164" s="158"/>
@@ -18117,7 +18121,7 @@
         <v>208</v>
       </c>
       <c r="B169" s="160" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C169" s="160"/>
       <c r="D169" s="160"/>
@@ -18135,7 +18139,7 @@
       <c r="P169" s="160"/>
       <c r="Q169" s="160"/>
       <c r="R169" s="160" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S169" s="160"/>
       <c r="T169" s="160"/>
@@ -18158,7 +18162,7 @@
         <v>209</v>
       </c>
       <c r="B170" s="160" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C170" s="160"/>
       <c r="D170" s="160"/>
@@ -18176,7 +18180,7 @@
       <c r="P170" s="160"/>
       <c r="Q170" s="160"/>
       <c r="R170" s="160" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S170" s="160"/>
       <c r="T170" s="160"/>
@@ -18236,7 +18240,7 @@
     </row>
     <row r="173" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B173" s="159" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C173" s="159"/>
       <c r="D173" s="159"/>
@@ -18253,7 +18257,7 @@
       <c r="M173" s="207"/>
       <c r="N173" s="208"/>
       <c r="O173" s="181" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P173" s="181"/>
       <c r="Q173" s="181"/>
@@ -18276,7 +18280,7 @@
     </row>
     <row r="174" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B174" s="138" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C174" s="138"/>
       <c r="D174" s="138"/>
@@ -18293,7 +18297,7 @@
       <c r="M174" s="215"/>
       <c r="N174" s="216"/>
       <c r="O174" s="209" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P174" s="210"/>
       <c r="Q174" s="210"/>
@@ -18316,7 +18320,7 @@
     </row>
     <row r="175" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B175" s="138" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C175" s="138"/>
       <c r="D175" s="138"/>
@@ -18333,7 +18337,7 @@
       <c r="M175" s="215"/>
       <c r="N175" s="216"/>
       <c r="O175" s="209" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P175" s="210"/>
       <c r="Q175" s="210"/>
@@ -18356,7 +18360,7 @@
     </row>
     <row r="176" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B176" s="138" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C176" s="138"/>
       <c r="D176" s="138"/>
@@ -18373,7 +18377,7 @@
       <c r="M176" s="215"/>
       <c r="N176" s="216"/>
       <c r="O176" s="238" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P176" s="210"/>
       <c r="Q176" s="210"/>
@@ -18396,7 +18400,7 @@
     </row>
     <row r="177" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B177" s="138" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C177" s="138"/>
       <c r="D177" s="138"/>
@@ -18413,7 +18417,7 @@
       <c r="M177" s="215"/>
       <c r="N177" s="216"/>
       <c r="O177" s="209" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P177" s="210"/>
       <c r="Q177" s="210"/>
@@ -18436,7 +18440,7 @@
     </row>
     <row r="178" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="B178" s="138" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C178" s="138"/>
       <c r="D178" s="138"/>
@@ -18453,7 +18457,7 @@
       <c r="M178" s="215"/>
       <c r="N178" s="216"/>
       <c r="O178" s="238" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P178" s="210"/>
       <c r="Q178" s="210"/>
@@ -18479,7 +18483,7 @@
     <row r="181" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="182" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B182" s="158" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C182" s="158"/>
       <c r="D182" s="158"/>
@@ -18650,7 +18654,7 @@
         <v>205</v>
       </c>
       <c r="B184" s="239" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C184" s="239"/>
       <c r="D184" s="239"/>
@@ -18689,7 +18693,7 @@
         <v>206</v>
       </c>
       <c r="B185" s="239" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C185" s="239"/>
       <c r="D185" s="239"/>
@@ -18707,7 +18711,7 @@
       <c r="P185" s="239"/>
       <c r="Q185" s="239"/>
       <c r="R185" s="239" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S185" s="239"/>
       <c r="T185" s="239"/>
@@ -18730,7 +18734,7 @@
         <v>207</v>
       </c>
       <c r="B186" s="239" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C186" s="239"/>
       <c r="D186" s="239"/>
@@ -18769,7 +18773,7 @@
         <v>208</v>
       </c>
       <c r="B187" s="240" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C187" s="240"/>
       <c r="D187" s="240"/>
@@ -18787,7 +18791,7 @@
       <c r="P187" s="240"/>
       <c r="Q187" s="240"/>
       <c r="R187" s="240" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S187" s="240"/>
       <c r="T187" s="240"/>
@@ -18810,7 +18814,7 @@
         <v>209</v>
       </c>
       <c r="B188" s="241" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C188" s="242"/>
       <c r="D188" s="242"/>
@@ -18849,7 +18853,7 @@
         <v>210</v>
       </c>
       <c r="B189" s="240" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C189" s="240"/>
       <c r="D189" s="240"/>
@@ -18867,7 +18871,7 @@
       <c r="P189" s="240"/>
       <c r="Q189" s="240"/>
       <c r="R189" s="240" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S189" s="240"/>
       <c r="T189" s="240"/>
@@ -18890,7 +18894,7 @@
         <v>251</v>
       </c>
       <c r="B190" s="241" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C190" s="242"/>
       <c r="D190" s="242"/>
@@ -18929,7 +18933,7 @@
         <v>252</v>
       </c>
       <c r="B191" s="264" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C191" s="265"/>
       <c r="D191" s="265"/>
@@ -19224,10 +19228,10 @@
     </row>
     <row r="199" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="139" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B199" s="249" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C199" s="250"/>
       <c r="D199" s="250"/>
@@ -19404,7 +19408,7 @@
     <row r="204" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="62"/>
       <c r="B204" s="249" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C204" s="250"/>
       <c r="D204" s="250"/>
@@ -19546,7 +19550,7 @@
     <row r="208" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
       <c r="B208" s="239" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C208" s="239"/>
       <c r="D208" s="239"/>
@@ -19622,7 +19626,7 @@
     </row>
     <row r="212" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="239" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C212" s="239"/>
       <c r="D212" s="239"/>
@@ -19639,7 +19643,7 @@
       <c r="M212" s="245"/>
       <c r="N212" s="246"/>
       <c r="O212" s="247" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P212" s="248"/>
       <c r="Q212" s="248"/>
@@ -19662,7 +19666,7 @@
     </row>
     <row r="213" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="257" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C213" s="257"/>
       <c r="D213" s="257"/>
@@ -19679,7 +19683,7 @@
       <c r="M213" s="259"/>
       <c r="N213" s="260"/>
       <c r="O213" s="247" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P213" s="248"/>
       <c r="Q213" s="248"/>
@@ -19702,7 +19706,7 @@
     </row>
     <row r="214" spans="2:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B214" s="257" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C214" s="257"/>
       <c r="D214" s="257"/>
@@ -19719,7 +19723,7 @@
       <c r="M214" s="259"/>
       <c r="N214" s="260"/>
       <c r="O214" s="247" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P214" s="248"/>
       <c r="Q214" s="248"/>
@@ -19742,7 +19746,7 @@
     </row>
     <row r="215" spans="2:33" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="257" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C215" s="257"/>
       <c r="D215" s="257"/>
@@ -19759,7 +19763,7 @@
       <c r="M215" s="259"/>
       <c r="N215" s="260"/>
       <c r="O215" s="247" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P215" s="248"/>
       <c r="Q215" s="248"/>
@@ -19782,7 +19786,7 @@
     </row>
     <row r="216" spans="2:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B216" s="257" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C216" s="257"/>
       <c r="D216" s="257"/>
@@ -19799,7 +19803,7 @@
       <c r="M216" s="259"/>
       <c r="N216" s="260"/>
       <c r="O216" s="247" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P216" s="248"/>
       <c r="Q216" s="248"/>
@@ -19822,7 +19826,7 @@
     </row>
     <row r="217" spans="2:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="257" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C217" s="257"/>
       <c r="D217" s="257"/>
@@ -19839,7 +19843,7 @@
       <c r="M217" s="259"/>
       <c r="N217" s="260"/>
       <c r="O217" s="247" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P217" s="248"/>
       <c r="Q217" s="248"/>
@@ -19862,7 +19866,7 @@
     </row>
     <row r="218" spans="2:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="258" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C218" s="259"/>
       <c r="D218" s="259"/>
@@ -19879,7 +19883,7 @@
       <c r="M218" s="259"/>
       <c r="N218" s="260"/>
       <c r="O218" s="274" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P218" s="275"/>
       <c r="Q218" s="275"/>
@@ -19902,7 +19906,7 @@
     </row>
     <row r="219" spans="2:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B219" s="258" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C219" s="259"/>
       <c r="D219" s="259"/>
@@ -19919,7 +19923,7 @@
       <c r="M219" s="259"/>
       <c r="N219" s="260"/>
       <c r="O219" s="274" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P219" s="275"/>
       <c r="Q219" s="275"/>
@@ -19942,7 +19946,7 @@
     </row>
     <row r="220" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="257" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C220" s="257"/>
       <c r="D220" s="257"/>
@@ -19959,7 +19963,7 @@
       <c r="M220" s="259"/>
       <c r="N220" s="260"/>
       <c r="O220" s="274" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P220" s="275"/>
       <c r="Q220" s="275"/>
@@ -19982,7 +19986,7 @@
     </row>
     <row r="221" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="257" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C221" s="257"/>
       <c r="D221" s="257"/>
@@ -19993,13 +19997,13 @@
       <c r="I221" s="257"/>
       <c r="J221" s="257"/>
       <c r="K221" s="258" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L221" s="259"/>
       <c r="M221" s="259"/>
       <c r="N221" s="260"/>
       <c r="O221" s="274" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P221" s="275"/>
       <c r="Q221" s="275"/>
@@ -20022,7 +20026,7 @@
     </row>
     <row r="222" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="258" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C222" s="259"/>
       <c r="D222" s="259"/>
@@ -20039,7 +20043,7 @@
       <c r="M222" s="259"/>
       <c r="N222" s="260"/>
       <c r="O222" s="274" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P222" s="275"/>
       <c r="Q222" s="275"/>
@@ -20062,7 +20066,7 @@
     </row>
     <row r="223" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="257" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C223" s="257"/>
       <c r="D223" s="257"/>
@@ -20079,7 +20083,7 @@
       <c r="M223" s="259"/>
       <c r="N223" s="260"/>
       <c r="O223" s="274" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P223" s="275"/>
       <c r="Q223" s="275"/>
@@ -20568,7 +20572,7 @@
     <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="53"/>
       <c r="B1" s="288" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C1" s="288"/>
       <c r="D1" s="288"/>
@@ -20855,7 +20859,7 @@
         <v>2</v>
       </c>
       <c r="AL4" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -20905,7 +20909,7 @@
         <v>1</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -20959,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="AL6" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -21013,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21067,7 +21071,7 @@
         <v>2</v>
       </c>
       <c r="AL8" s="54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21117,7 +21121,7 @@
         <v>1</v>
       </c>
       <c r="AL9" s="54" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21169,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -21271,7 +21275,7 @@
         <v>8</v>
       </c>
       <c r="AL12" s="54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21323,7 +21327,7 @@
         <v>4</v>
       </c>
       <c r="AL13" s="54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21375,7 +21379,7 @@
         <v>8</v>
       </c>
       <c r="AL14" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21427,7 +21431,7 @@
         <v>2</v>
       </c>
       <c r="AL15" s="54" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21473,7 +21477,7 @@
         <v>2</v>
       </c>
       <c r="AL16" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21519,7 +21523,7 @@
         <v>2</v>
       </c>
       <c r="AL17" s="54" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21565,7 +21569,7 @@
         <v>2</v>
       </c>
       <c r="AL18" s="54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="17.25" x14ac:dyDescent="0.25">
@@ -21611,7 +21615,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
@@ -22794,7 +22798,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="57" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -22844,7 +22848,7 @@
         <v>1</v>
       </c>
       <c r="AL47" s="57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -22896,7 +22900,7 @@
         <v>2</v>
       </c>
       <c r="AL48" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -22948,7 +22952,7 @@
         <v>6</v>
       </c>
       <c r="AL49" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23000,7 +23004,7 @@
         <v>2</v>
       </c>
       <c r="AL50" s="57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23054,7 +23058,7 @@
         <v>2</v>
       </c>
       <c r="AL51" s="57" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23104,7 +23108,7 @@
         <v>2</v>
       </c>
       <c r="AL52" s="45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23156,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="AL53" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -23258,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="AL55" s="57" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23312,7 +23316,7 @@
         <v>1</v>
       </c>
       <c r="AL56" s="57" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23362,7 +23366,7 @@
         <v>2</v>
       </c>
       <c r="AL57" s="57" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23410,7 +23414,7 @@
         <v>6</v>
       </c>
       <c r="AL58" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23458,7 +23462,7 @@
         <v>2</v>
       </c>
       <c r="AL59" s="57" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -23512,7 +23516,7 @@
         <v>2</v>
       </c>
       <c r="AL60" s="57" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23562,7 +23566,7 @@
         <v>2</v>
       </c>
       <c r="AL61" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23608,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="AL62" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24007,7 +24011,7 @@
     <row r="75" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75" s="158" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C75" s="158"/>
       <c r="D75" s="158"/>
@@ -24280,13 +24284,13 @@
       <c r="AF78" s="239"/>
       <c r="AG78" s="239"/>
       <c r="AJ78" s="111" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AK78" s="111">
         <v>4</v>
       </c>
       <c r="AL78" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24334,7 +24338,7 @@
         <v>2</v>
       </c>
       <c r="AL79" s="46" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24342,7 +24346,7 @@
         <v>208</v>
       </c>
       <c r="B80" s="287" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C80" s="287"/>
       <c r="D80" s="287"/>
@@ -24376,13 +24380,13 @@
       <c r="AF80" s="287"/>
       <c r="AG80" s="287"/>
       <c r="AJ80" s="111" t="s">
+        <v>790</v>
+      </c>
+      <c r="AK80" s="111" t="s">
         <v>791</v>
       </c>
-      <c r="AK80" s="111" t="s">
-        <v>792</v>
-      </c>
       <c r="AL80" s="46" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24390,7 +24394,7 @@
         <v>209</v>
       </c>
       <c r="B81" s="241" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C81" s="242"/>
       <c r="D81" s="242"/>
@@ -24408,19 +24412,19 @@
       <c r="P81" s="242"/>
       <c r="Q81" s="243"/>
       <c r="R81" s="241" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S81" s="242"/>
       <c r="T81" s="242"/>
       <c r="U81" s="243"/>
       <c r="V81" s="241" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W81" s="242"/>
       <c r="X81" s="242"/>
       <c r="Y81" s="243"/>
       <c r="Z81" s="241" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AA81" s="242"/>
       <c r="AB81" s="242"/>
@@ -24430,13 +24434,13 @@
       <c r="AF81" s="242"/>
       <c r="AG81" s="243"/>
       <c r="AJ81" s="111" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AK81" s="111" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AL81" s="116" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="82" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24444,7 +24448,7 @@
         <v>210</v>
       </c>
       <c r="B82" s="241" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C82" s="242"/>
       <c r="D82" s="242"/>
@@ -24462,7 +24466,7 @@
       <c r="P82" s="242"/>
       <c r="Q82" s="243"/>
       <c r="R82" s="241" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S82" s="242"/>
       <c r="T82" s="242"/>
@@ -24480,13 +24484,13 @@
       <c r="AF82" s="242"/>
       <c r="AG82" s="243"/>
       <c r="AJ82" s="111" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AK82" s="111">
         <v>1</v>
       </c>
       <c r="AL82" s="116" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="83" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24494,12 +24498,12 @@
         <v>251</v>
       </c>
       <c r="B83" s="241" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C83" s="242"/>
       <c r="D83" s="243"/>
       <c r="E83" s="241" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F83" s="242"/>
       <c r="G83" s="242"/>
@@ -24514,7 +24518,7 @@
       <c r="P83" s="242"/>
       <c r="Q83" s="243"/>
       <c r="R83" s="241" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S83" s="242"/>
       <c r="T83" s="242"/>
@@ -24524,7 +24528,7 @@
       <c r="X83" s="242"/>
       <c r="Y83" s="243"/>
       <c r="Z83" s="241" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AA83" s="242"/>
       <c r="AB83" s="242"/>
@@ -24534,13 +24538,13 @@
       <c r="AF83" s="242"/>
       <c r="AG83" s="243"/>
       <c r="AJ83" s="111" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AK83" s="111">
         <v>2</v>
       </c>
       <c r="AL83" s="116" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24548,7 +24552,7 @@
         <v>252</v>
       </c>
       <c r="B84" s="241" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C84" s="242"/>
       <c r="D84" s="242"/>
@@ -24566,7 +24570,7 @@
       <c r="P84" s="242"/>
       <c r="Q84" s="243"/>
       <c r="R84" s="241" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="S84" s="242"/>
       <c r="T84" s="242"/>
@@ -24584,13 +24588,13 @@
       <c r="AF84" s="242"/>
       <c r="AG84" s="243"/>
       <c r="AJ84" s="111" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AK84" s="111">
         <v>2</v>
       </c>
       <c r="AL84" s="116" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="85" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24598,7 +24602,7 @@
         <v>253</v>
       </c>
       <c r="B85" s="241" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C85" s="242"/>
       <c r="D85" s="242"/>
@@ -24616,7 +24620,7 @@
       <c r="P85" s="242"/>
       <c r="Q85" s="243"/>
       <c r="R85" s="241" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S85" s="242"/>
       <c r="T85" s="242"/>
@@ -24634,13 +24638,13 @@
       <c r="AF85" s="242"/>
       <c r="AG85" s="243"/>
       <c r="AJ85" s="111" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AK85" s="111" t="s">
+        <v>802</v>
+      </c>
+      <c r="AL85" s="117" t="s">
         <v>803</v>
-      </c>
-      <c r="AL85" s="117" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -24648,7 +24652,7 @@
         <v>254</v>
       </c>
       <c r="B86" s="240" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C86" s="240"/>
       <c r="D86" s="240"/>
@@ -24682,21 +24686,21 @@
       <c r="AF86" s="282"/>
       <c r="AG86" s="283"/>
       <c r="AJ86" s="111" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AK86" s="111" t="s">
+        <v>805</v>
+      </c>
+      <c r="AL86" s="117" t="s">
         <v>806</v>
-      </c>
-      <c r="AL86" s="117" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="87" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="138" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B87" s="284" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C87" s="285"/>
       <c r="D87" s="285"/>
@@ -24730,19 +24734,19 @@
       <c r="AF87" s="285"/>
       <c r="AG87" s="286"/>
       <c r="AJ87" s="111" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AK87" s="111">
         <v>1</v>
       </c>
       <c r="AL87" s="116" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="138"/>
       <c r="B88" s="264" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C88" s="265"/>
       <c r="D88" s="265"/>
@@ -24776,13 +24780,13 @@
       <c r="AF88" s="265"/>
       <c r="AG88" s="277"/>
       <c r="AJ88" s="111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AK88" s="111">
         <v>1</v>
       </c>
       <c r="AL88" s="117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24820,13 +24824,13 @@
       <c r="AF89" s="266"/>
       <c r="AG89" s="267"/>
       <c r="AJ89" s="111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AK89" s="111">
         <v>2</v>
       </c>
       <c r="AL89" s="116" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="90" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24864,46 +24868,46 @@
       <c r="AF90" s="279"/>
       <c r="AG90" s="280"/>
       <c r="AJ90" s="111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AK90" s="111">
         <v>4</v>
       </c>
       <c r="AL90" s="118" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="91" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ91" s="111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AK91" s="111">
         <v>4</v>
       </c>
       <c r="AL91" s="119" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ92" s="111" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AK92" s="111" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AL92" s="116" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="93" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ93" s="111" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AK93" s="111" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AL93" s="116" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -25024,8 +25028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL139"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:AG115"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25040,7 +25044,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="158" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
@@ -25313,13 +25317,13 @@
       <c r="AF4" s="159"/>
       <c r="AG4" s="159"/>
       <c r="AJ4" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK4" s="3">
         <v>4</v>
       </c>
       <c r="AL4" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25361,13 +25365,13 @@
       <c r="AF5" s="159"/>
       <c r="AG5" s="159"/>
       <c r="AJ5" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK5" s="64">
         <v>4</v>
       </c>
       <c r="AL5" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25375,7 +25379,7 @@
         <v>208</v>
       </c>
       <c r="B6" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C6" s="292"/>
       <c r="D6" s="292"/>
@@ -25415,7 +25419,7 @@
         <v>2</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25423,7 +25427,7 @@
         <v>209</v>
       </c>
       <c r="B7" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C7" s="292"/>
       <c r="D7" s="292"/>
@@ -25457,13 +25461,13 @@
       <c r="AF7" s="292"/>
       <c r="AG7" s="293"/>
       <c r="AJ7" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25471,7 +25475,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="159"/>
       <c r="D8" s="159"/>
@@ -25489,7 +25493,7 @@
       <c r="P8" s="159"/>
       <c r="Q8" s="159"/>
       <c r="R8" s="159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S8" s="159"/>
       <c r="T8" s="159"/>
@@ -25511,13 +25515,13 @@
       <c r="AF8" s="159"/>
       <c r="AG8" s="159"/>
       <c r="AJ8" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25569,7 +25573,7 @@
         <v>1</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25577,7 +25581,7 @@
         <v>252</v>
       </c>
       <c r="B10" s="159" t="s">
-        <v>302</v>
+        <v>819</v>
       </c>
       <c r="C10" s="159"/>
       <c r="D10" s="159"/>
@@ -25595,7 +25599,7 @@
       <c r="P10" s="159"/>
       <c r="Q10" s="159"/>
       <c r="R10" s="159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S10" s="159"/>
       <c r="T10" s="159"/>
@@ -25613,21 +25617,21 @@
       <c r="AF10" s="159"/>
       <c r="AG10" s="159"/>
       <c r="AJ10" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK10" s="3">
         <v>1</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="138"/>
       <c r="D11" s="138"/>
@@ -25661,13 +25665,13 @@
       <c r="AF11" s="138"/>
       <c r="AG11" s="138"/>
       <c r="AJ11" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK11" s="3">
         <v>1</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25705,13 +25709,13 @@
       <c r="AF12" s="138"/>
       <c r="AG12" s="138"/>
       <c r="AJ12" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK12" s="3">
         <v>4</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -25749,21 +25753,21 @@
       <c r="AF13" s="138"/>
       <c r="AG13" s="138"/>
       <c r="AJ13" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK13" s="3">
         <v>2</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B14" s="138" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="138"/>
       <c r="D14" s="138"/>
@@ -25797,18 +25801,18 @@
       <c r="AF14" s="138"/>
       <c r="AG14" s="138"/>
       <c r="AJ14" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK14" s="3">
         <v>48</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
@@ -25843,18 +25847,18 @@
       <c r="AF15" s="138"/>
       <c r="AG15" s="138"/>
       <c r="AJ15" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK15" s="34">
         <v>12</v>
       </c>
       <c r="AL15" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
@@ -25889,19 +25893,19 @@
       <c r="AF16" s="138"/>
       <c r="AG16" s="138"/>
       <c r="AJ16" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="298" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="138" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17" s="138"/>
       <c r="D17" s="138"/>
@@ -25935,13 +25939,13 @@
       <c r="AF17" s="138"/>
       <c r="AG17" s="138"/>
       <c r="AJ17" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK17" s="3">
         <v>1</v>
       </c>
       <c r="AL17" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
@@ -26016,7 +26020,7 @@
     </row>
     <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C20" s="159"/>
       <c r="D20" s="159"/>
@@ -26052,7 +26056,7 @@
     </row>
     <row r="25" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="158" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="158"/>
       <c r="D25" s="158"/>
@@ -26325,13 +26329,13 @@
       <c r="AF28" s="159"/>
       <c r="AG28" s="159"/>
       <c r="AJ28" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK28" s="64">
         <v>4</v>
       </c>
       <c r="AL28" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26373,13 +26377,13 @@
       <c r="AF29" s="159"/>
       <c r="AG29" s="159"/>
       <c r="AJ29" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK29" s="64">
         <v>4</v>
       </c>
       <c r="AL29" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26387,7 +26391,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C30" s="292"/>
       <c r="D30" s="292"/>
@@ -26427,7 +26431,7 @@
         <v>2</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26435,7 +26439,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C31" s="292"/>
       <c r="D31" s="292"/>
@@ -26469,13 +26473,13 @@
       <c r="AF31" s="292"/>
       <c r="AG31" s="293"/>
       <c r="AJ31" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26483,7 +26487,7 @@
         <v>210</v>
       </c>
       <c r="B32" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="159"/>
       <c r="D32" s="159"/>
@@ -26501,7 +26505,7 @@
       <c r="P32" s="159"/>
       <c r="Q32" s="159"/>
       <c r="R32" s="159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S32" s="159"/>
       <c r="T32" s="159"/>
@@ -26523,13 +26527,13 @@
       <c r="AF32" s="159"/>
       <c r="AG32" s="159"/>
       <c r="AJ32" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL32" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26557,7 +26561,7 @@
       <c r="P33" s="159"/>
       <c r="Q33" s="159"/>
       <c r="R33" s="159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S33" s="159"/>
       <c r="T33" s="159"/>
@@ -26581,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AL33" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26589,7 +26593,7 @@
         <v>252</v>
       </c>
       <c r="B34" s="159" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" s="159"/>
       <c r="D34" s="159"/>
@@ -26607,7 +26611,7 @@
       <c r="P34" s="159"/>
       <c r="Q34" s="159"/>
       <c r="R34" s="159" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S34" s="159"/>
       <c r="T34" s="159"/>
@@ -26625,21 +26629,21 @@
       <c r="AF34" s="159"/>
       <c r="AG34" s="159"/>
       <c r="AJ34" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK34" s="3">
         <v>1</v>
       </c>
       <c r="AL34" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="301" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" s="138"/>
       <c r="D35" s="138"/>
@@ -26673,13 +26677,13 @@
       <c r="AF35" s="138"/>
       <c r="AG35" s="138"/>
       <c r="AJ35" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK35" s="3">
         <v>1</v>
       </c>
       <c r="AL35" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -26717,19 +26721,19 @@
       <c r="AF36" s="138"/>
       <c r="AG36" s="138"/>
       <c r="AJ36" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AK36" s="3">
         <v>4</v>
       </c>
       <c r="AL36" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="301"/>
       <c r="B37" s="159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="159"/>
       <c r="D37" s="159"/>
@@ -26763,27 +26767,27 @@
       <c r="AF37" s="300"/>
       <c r="AG37" s="300"/>
       <c r="AJ37" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ38" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK38" s="3">
         <v>1</v>
       </c>
       <c r="AL38" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="158" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="158"/>
       <c r="D43" s="158"/>
@@ -27056,13 +27060,13 @@
       <c r="AF46" s="159"/>
       <c r="AG46" s="159"/>
       <c r="AJ46" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK46" s="64">
         <v>4</v>
       </c>
       <c r="AL46" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27104,13 +27108,13 @@
       <c r="AF47" s="159"/>
       <c r="AG47" s="159"/>
       <c r="AJ47" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK47" s="64">
         <v>4</v>
       </c>
       <c r="AL47" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27118,7 +27122,7 @@
         <v>208</v>
       </c>
       <c r="B48" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C48" s="292"/>
       <c r="D48" s="292"/>
@@ -27158,7 +27162,7 @@
         <v>2</v>
       </c>
       <c r="AL48" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27166,7 +27170,7 @@
         <v>209</v>
       </c>
       <c r="B49" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C49" s="292"/>
       <c r="D49" s="292"/>
@@ -27200,13 +27204,13 @@
       <c r="AF49" s="292"/>
       <c r="AG49" s="293"/>
       <c r="AJ49" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK49" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL49" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27214,7 +27218,7 @@
         <v>210</v>
       </c>
       <c r="B50" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
@@ -27232,7 +27236,7 @@
       <c r="P50" s="159"/>
       <c r="Q50" s="159"/>
       <c r="R50" s="159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S50" s="159"/>
       <c r="T50" s="159"/>
@@ -27254,13 +27258,13 @@
       <c r="AF50" s="159"/>
       <c r="AG50" s="159"/>
       <c r="AJ50" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK50" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL50" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27288,7 +27292,7 @@
       <c r="P51" s="159"/>
       <c r="Q51" s="159"/>
       <c r="R51" s="159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S51" s="159"/>
       <c r="T51" s="159"/>
@@ -27312,7 +27316,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27320,7 +27324,7 @@
         <v>252</v>
       </c>
       <c r="B52" s="159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C52" s="159"/>
       <c r="D52" s="159"/>
@@ -27338,7 +27342,7 @@
       <c r="P52" s="159"/>
       <c r="Q52" s="159"/>
       <c r="R52" s="206" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S52" s="207"/>
       <c r="T52" s="207"/>
@@ -27348,7 +27352,7 @@
       <c r="X52" s="207"/>
       <c r="Y52" s="208"/>
       <c r="Z52" s="206" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA52" s="207"/>
       <c r="AB52" s="207"/>
@@ -27358,13 +27362,13 @@
       <c r="AF52" s="207"/>
       <c r="AG52" s="208"/>
       <c r="AJ52" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK52" s="3">
         <v>1</v>
       </c>
       <c r="AL52" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27372,7 +27376,7 @@
         <v>253</v>
       </c>
       <c r="B53" s="159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C53" s="159"/>
       <c r="D53" s="159"/>
@@ -27406,13 +27410,13 @@
       <c r="AF53" s="159"/>
       <c r="AG53" s="159"/>
       <c r="AJ53" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK53" s="3">
         <v>1</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27420,7 +27424,7 @@
         <v>254</v>
       </c>
       <c r="B54" s="159" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C54" s="159"/>
       <c r="D54" s="159"/>
@@ -27430,7 +27434,7 @@
       <c r="H54" s="159"/>
       <c r="I54" s="159"/>
       <c r="J54" s="159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K54" s="159"/>
       <c r="L54" s="159"/>
@@ -27456,13 +27460,13 @@
       <c r="AF54" s="159"/>
       <c r="AG54" s="159"/>
       <c r="AJ54" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK54" s="3">
         <v>4</v>
       </c>
       <c r="AL54" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27470,7 +27474,7 @@
         <v>255</v>
       </c>
       <c r="B55" s="159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C55" s="159"/>
       <c r="D55" s="159"/>
@@ -27496,7 +27500,7 @@
       <c r="X55" s="159"/>
       <c r="Y55" s="159"/>
       <c r="Z55" s="159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA55" s="159"/>
       <c r="AB55" s="159"/>
@@ -27506,21 +27510,21 @@
       <c r="AF55" s="159"/>
       <c r="AG55" s="159"/>
       <c r="AJ55" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AK55" s="3">
         <v>1</v>
       </c>
       <c r="AL55" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="301" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C56" s="138"/>
       <c r="D56" s="138"/>
@@ -27554,13 +27558,13 @@
       <c r="AF56" s="138"/>
       <c r="AG56" s="138"/>
       <c r="AJ56" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AK56" s="3">
         <v>6</v>
       </c>
       <c r="AL56" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27598,13 +27602,13 @@
       <c r="AF57" s="138"/>
       <c r="AG57" s="138"/>
       <c r="AJ57" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK57" s="3">
         <v>6</v>
       </c>
       <c r="AL57" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27642,17 +27646,17 @@
       <c r="AF58" s="138"/>
       <c r="AG58" s="138"/>
       <c r="AJ58" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK58" s="3"/>
       <c r="AL58" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="301"/>
       <c r="B59" s="159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C59" s="159"/>
       <c r="D59" s="159"/>
@@ -27686,13 +27690,13 @@
       <c r="AF59" s="295"/>
       <c r="AG59" s="296"/>
       <c r="AJ59" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK59" s="3">
         <v>1</v>
       </c>
       <c r="AL59" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -27717,7 +27721,7 @@
     </row>
     <row r="65" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="158" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C65" s="158"/>
       <c r="D65" s="158"/>
@@ -27990,13 +27994,13 @@
       <c r="AF68" s="159"/>
       <c r="AG68" s="159"/>
       <c r="AJ68" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK68" s="64">
         <v>4</v>
       </c>
       <c r="AL68" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28038,13 +28042,13 @@
       <c r="AF69" s="159"/>
       <c r="AG69" s="159"/>
       <c r="AJ69" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK69" s="64">
         <v>4</v>
       </c>
       <c r="AL69" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28052,7 +28056,7 @@
         <v>208</v>
       </c>
       <c r="B70" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C70" s="292"/>
       <c r="D70" s="292"/>
@@ -28092,7 +28096,7 @@
         <v>2</v>
       </c>
       <c r="AL70" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28100,7 +28104,7 @@
         <v>209</v>
       </c>
       <c r="B71" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C71" s="292"/>
       <c r="D71" s="292"/>
@@ -28134,13 +28138,13 @@
       <c r="AF71" s="292"/>
       <c r="AG71" s="293"/>
       <c r="AJ71" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL71" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28148,7 +28152,7 @@
         <v>210</v>
       </c>
       <c r="B72" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C72" s="159"/>
       <c r="D72" s="159"/>
@@ -28166,7 +28170,7 @@
       <c r="P72" s="159"/>
       <c r="Q72" s="159"/>
       <c r="R72" s="159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S72" s="159"/>
       <c r="T72" s="159"/>
@@ -28188,13 +28192,13 @@
       <c r="AF72" s="159"/>
       <c r="AG72" s="159"/>
       <c r="AJ72" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL72" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28222,7 +28226,7 @@
       <c r="P73" s="159"/>
       <c r="Q73" s="159"/>
       <c r="R73" s="159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S73" s="159"/>
       <c r="T73" s="159"/>
@@ -28246,7 +28250,7 @@
         <v>1</v>
       </c>
       <c r="AL73" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28254,7 +28258,7 @@
         <v>252</v>
       </c>
       <c r="B74" s="159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C74" s="159"/>
       <c r="D74" s="159"/>
@@ -28272,7 +28276,7 @@
       <c r="P74" s="159"/>
       <c r="Q74" s="159"/>
       <c r="R74" s="206" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S74" s="207"/>
       <c r="T74" s="207"/>
@@ -28282,7 +28286,7 @@
       <c r="X74" s="207"/>
       <c r="Y74" s="208"/>
       <c r="Z74" s="206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA74" s="207"/>
       <c r="AB74" s="207"/>
@@ -28292,21 +28296,21 @@
       <c r="AF74" s="207"/>
       <c r="AG74" s="208"/>
       <c r="AJ74" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK74" s="3">
         <v>1</v>
       </c>
       <c r="AL74" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="301" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B75" s="138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C75" s="138"/>
       <c r="D75" s="138"/>
@@ -28340,13 +28344,13 @@
       <c r="AF75" s="138"/>
       <c r="AG75" s="138"/>
       <c r="AJ75" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK75" s="3">
         <v>1</v>
       </c>
       <c r="AL75" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28384,13 +28388,13 @@
       <c r="AF76" s="138"/>
       <c r="AG76" s="138"/>
       <c r="AJ76" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AK76" s="3">
         <v>4</v>
       </c>
       <c r="AL76" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28428,19 +28432,19 @@
       <c r="AF77" s="138"/>
       <c r="AG77" s="138"/>
       <c r="AJ77" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK77" s="3">
         <v>1</v>
       </c>
       <c r="AL77" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="301"/>
       <c r="B78" s="159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C78" s="159"/>
       <c r="D78" s="159"/>
@@ -28474,38 +28478,38 @@
       <c r="AF78" s="295"/>
       <c r="AG78" s="296"/>
       <c r="AJ78" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AK78" s="3">
         <v>1</v>
       </c>
       <c r="AL78" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ79" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AK79" s="3"/>
       <c r="AL79" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ80" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK80" s="3">
         <v>1</v>
       </c>
       <c r="AL80" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="158" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C85" s="158"/>
       <c r="D85" s="158"/>
@@ -28778,13 +28782,13 @@
       <c r="AF88" s="159"/>
       <c r="AG88" s="159"/>
       <c r="AJ88" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK88" s="64">
         <v>4</v>
       </c>
       <c r="AL88" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28826,13 +28830,13 @@
       <c r="AF89" s="159"/>
       <c r="AG89" s="159"/>
       <c r="AJ89" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK89" s="64">
         <v>4</v>
       </c>
       <c r="AL89" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="90" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28840,7 +28844,7 @@
         <v>208</v>
       </c>
       <c r="B90" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C90" s="292"/>
       <c r="D90" s="292"/>
@@ -28880,7 +28884,7 @@
         <v>2</v>
       </c>
       <c r="AL90" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28888,7 +28892,7 @@
         <v>209</v>
       </c>
       <c r="B91" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C91" s="292"/>
       <c r="D91" s="292"/>
@@ -28925,10 +28929,10 @@
         <v>297</v>
       </c>
       <c r="AK91" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL91" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -28936,7 +28940,7 @@
         <v>210</v>
       </c>
       <c r="B92" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C92" s="159"/>
       <c r="D92" s="159"/>
@@ -28976,13 +28980,13 @@
       <c r="AF92" s="159"/>
       <c r="AG92" s="159"/>
       <c r="AJ92" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK92" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL92" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="AL92" s="33" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29010,7 +29014,7 @@
       <c r="P93" s="159"/>
       <c r="Q93" s="159"/>
       <c r="R93" s="159" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S93" s="159"/>
       <c r="T93" s="159"/>
@@ -29034,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="AL93" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29042,7 +29046,7 @@
         <v>252</v>
       </c>
       <c r="B94" s="159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" s="159"/>
       <c r="D94" s="159"/>
@@ -29060,7 +29064,7 @@
       <c r="P94" s="159"/>
       <c r="Q94" s="159"/>
       <c r="R94" s="159" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S94" s="159"/>
       <c r="T94" s="159"/>
@@ -29078,13 +29082,13 @@
       <c r="AF94" s="159"/>
       <c r="AG94" s="159"/>
       <c r="AJ94" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK94" s="3">
         <v>1</v>
       </c>
       <c r="AL94" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29092,7 +29096,7 @@
         <v>253</v>
       </c>
       <c r="B95" s="159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" s="159"/>
       <c r="D95" s="159"/>
@@ -29110,7 +29114,7 @@
       <c r="P95" s="159"/>
       <c r="Q95" s="159"/>
       <c r="R95" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S95" s="159"/>
       <c r="T95" s="159"/>
@@ -29128,13 +29132,13 @@
       <c r="AF95" s="159"/>
       <c r="AG95" s="159"/>
       <c r="AJ95" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK95" s="3">
         <v>1</v>
       </c>
       <c r="AL95" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29142,7 +29146,7 @@
         <v>254</v>
       </c>
       <c r="B96" s="159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" s="159"/>
       <c r="D96" s="159"/>
@@ -29160,7 +29164,7 @@
       <c r="P96" s="159"/>
       <c r="Q96" s="159"/>
       <c r="R96" s="159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S96" s="159"/>
       <c r="T96" s="159"/>
@@ -29170,51 +29174,51 @@
       <c r="X96" s="159"/>
       <c r="Y96" s="159"/>
       <c r="AJ96" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK96" s="3">
         <v>4</v>
       </c>
       <c r="AL96" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ97" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AK97" s="3">
         <v>4</v>
       </c>
       <c r="AL97" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ98" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AK98" s="3">
         <v>4</v>
       </c>
       <c r="AL98" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ99" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK99" s="3">
         <v>1</v>
       </c>
       <c r="AL99" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B104" s="158" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C104" s="158"/>
       <c r="D104" s="158"/>
@@ -29487,13 +29491,13 @@
       <c r="AF107" s="159"/>
       <c r="AG107" s="159"/>
       <c r="AJ107" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK107" s="64">
         <v>4</v>
       </c>
       <c r="AL107" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29535,13 +29539,13 @@
       <c r="AF108" s="159"/>
       <c r="AG108" s="159"/>
       <c r="AJ108" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK108" s="64">
         <v>4</v>
       </c>
       <c r="AL108" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29549,7 +29553,7 @@
         <v>208</v>
       </c>
       <c r="B109" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C109" s="292"/>
       <c r="D109" s="292"/>
@@ -29589,7 +29593,7 @@
         <v>2</v>
       </c>
       <c r="AL109" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29597,7 +29601,7 @@
         <v>209</v>
       </c>
       <c r="B110" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C110" s="292"/>
       <c r="D110" s="292"/>
@@ -29631,13 +29635,13 @@
       <c r="AF110" s="292"/>
       <c r="AG110" s="293"/>
       <c r="AJ110" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK110" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL110" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="AK110" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL110" s="6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29645,7 +29649,7 @@
         <v>210</v>
       </c>
       <c r="B111" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C111" s="159"/>
       <c r="D111" s="159"/>
@@ -29685,13 +29689,13 @@
       <c r="AF111" s="159"/>
       <c r="AG111" s="159"/>
       <c r="AJ111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK111" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL111" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="AL111" s="33" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29719,7 +29723,7 @@
       <c r="P112" s="159"/>
       <c r="Q112" s="159"/>
       <c r="R112" s="159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S112" s="159"/>
       <c r="T112" s="159"/>
@@ -29743,7 +29747,7 @@
         <v>1</v>
       </c>
       <c r="AL112" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29751,7 +29755,7 @@
         <v>252</v>
       </c>
       <c r="B113" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C113" s="159"/>
       <c r="D113" s="159"/>
@@ -29785,13 +29789,13 @@
       <c r="AF113" s="159"/>
       <c r="AG113" s="159"/>
       <c r="AJ113" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK113" s="3">
         <v>1</v>
       </c>
       <c r="AL113" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29799,7 +29803,7 @@
         <v>253</v>
       </c>
       <c r="B114" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C114" s="159"/>
       <c r="D114" s="159"/>
@@ -29817,7 +29821,7 @@
       <c r="P114" s="159"/>
       <c r="Q114" s="159"/>
       <c r="R114" s="159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S114" s="159"/>
       <c r="T114" s="159"/>
@@ -29835,13 +29839,13 @@
       <c r="AF114" s="159"/>
       <c r="AG114" s="159"/>
       <c r="AJ114" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK114" s="3">
         <v>1</v>
       </c>
       <c r="AL114" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29849,7 +29853,7 @@
         <v>254</v>
       </c>
       <c r="B115" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C115" s="159"/>
       <c r="D115" s="159"/>
@@ -29883,13 +29887,13 @@
       <c r="AF115" s="159"/>
       <c r="AG115" s="159"/>
       <c r="AJ115" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK115" s="3">
         <v>8</v>
       </c>
       <c r="AL115" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -29897,7 +29901,7 @@
         <v>255</v>
       </c>
       <c r="B116" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C116" s="159"/>
       <c r="D116" s="159"/>
@@ -29915,7 +29919,7 @@
       <c r="P116" s="159"/>
       <c r="Q116" s="159"/>
       <c r="R116" s="159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S116" s="159"/>
       <c r="T116" s="159"/>
@@ -29933,29 +29937,29 @@
       <c r="AF116" s="303"/>
       <c r="AG116" s="304"/>
       <c r="AJ116" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK116" s="3">
         <v>8</v>
       </c>
       <c r="AL116" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ117" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK117" s="3">
         <v>1</v>
       </c>
       <c r="AL117" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B123" s="158" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C123" s="158"/>
       <c r="D123" s="158"/>
@@ -30228,13 +30232,13 @@
       <c r="AF126" s="159"/>
       <c r="AG126" s="159"/>
       <c r="AJ126" s="64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK126" s="64">
         <v>4</v>
       </c>
       <c r="AL126" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="127" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30276,13 +30280,13 @@
       <c r="AF127" s="159"/>
       <c r="AG127" s="159"/>
       <c r="AJ127" s="64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AK127" s="64">
         <v>4</v>
       </c>
       <c r="AL127" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="128" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30290,7 +30294,7 @@
         <v>208</v>
       </c>
       <c r="B128" s="291" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C128" s="292"/>
       <c r="D128" s="292"/>
@@ -30330,7 +30334,7 @@
         <v>2</v>
       </c>
       <c r="AL128" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30338,7 +30342,7 @@
         <v>209</v>
       </c>
       <c r="B129" s="291" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C129" s="292"/>
       <c r="D129" s="292"/>
@@ -30372,13 +30376,13 @@
       <c r="AF129" s="292"/>
       <c r="AG129" s="293"/>
       <c r="AJ129" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AK129" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL129" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30386,7 +30390,7 @@
         <v>210</v>
       </c>
       <c r="B130" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C130" s="159"/>
       <c r="D130" s="159"/>
@@ -30426,13 +30430,13 @@
       <c r="AF130" s="159"/>
       <c r="AG130" s="159"/>
       <c r="AJ130" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK130" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL130" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="AL130" s="33" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30460,7 +30464,7 @@
       <c r="P131" s="159"/>
       <c r="Q131" s="159"/>
       <c r="R131" s="159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S131" s="159"/>
       <c r="T131" s="159"/>
@@ -30484,7 +30488,7 @@
         <v>1</v>
       </c>
       <c r="AL131" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30492,7 +30496,7 @@
         <v>252</v>
       </c>
       <c r="B132" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C132" s="159"/>
       <c r="D132" s="159"/>
@@ -30526,13 +30530,13 @@
       <c r="AF132" s="159"/>
       <c r="AG132" s="159"/>
       <c r="AJ132" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK132" s="3">
         <v>1</v>
       </c>
       <c r="AL132" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30540,7 +30544,7 @@
         <v>253</v>
       </c>
       <c r="B133" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C133" s="159"/>
       <c r="D133" s="159"/>
@@ -30558,7 +30562,7 @@
       <c r="P133" s="159"/>
       <c r="Q133" s="159"/>
       <c r="R133" s="159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S133" s="159"/>
       <c r="T133" s="159"/>
@@ -30576,13 +30580,13 @@
       <c r="AF133" s="159"/>
       <c r="AG133" s="159"/>
       <c r="AJ133" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK133" s="3">
         <v>1</v>
       </c>
       <c r="AL133" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30590,7 +30594,7 @@
         <v>254</v>
       </c>
       <c r="B134" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C134" s="159"/>
       <c r="D134" s="159"/>
@@ -30624,13 +30628,13 @@
       <c r="AF134" s="159"/>
       <c r="AG134" s="159"/>
       <c r="AJ134" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK134" s="3">
         <v>8</v>
       </c>
       <c r="AL134" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30638,7 +30642,7 @@
         <v>255</v>
       </c>
       <c r="B135" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C135" s="159"/>
       <c r="D135" s="159"/>
@@ -30656,7 +30660,7 @@
       <c r="P135" s="159"/>
       <c r="Q135" s="159"/>
       <c r="R135" s="159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S135" s="159"/>
       <c r="T135" s="159"/>
@@ -30674,13 +30678,13 @@
       <c r="AF135" s="159"/>
       <c r="AG135" s="159"/>
       <c r="AJ135" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK135" s="3">
         <v>8</v>
       </c>
       <c r="AL135" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30688,7 +30692,7 @@
         <v>256</v>
       </c>
       <c r="B136" s="159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C136" s="159"/>
       <c r="D136" s="159"/>
@@ -30722,13 +30726,13 @@
       <c r="AF136" s="159"/>
       <c r="AG136" s="159"/>
       <c r="AJ136" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK136" s="3">
         <v>8</v>
       </c>
       <c r="AL136" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30736,7 +30740,7 @@
         <v>257</v>
       </c>
       <c r="B137" s="159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C137" s="159"/>
       <c r="D137" s="159"/>
@@ -30754,7 +30758,7 @@
       <c r="P137" s="159"/>
       <c r="Q137" s="159"/>
       <c r="R137" s="159" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S137" s="159"/>
       <c r="T137" s="159"/>
@@ -30772,13 +30776,13 @@
       <c r="AF137" s="159"/>
       <c r="AG137" s="159"/>
       <c r="AJ137" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AK137" s="3">
         <v>8</v>
       </c>
       <c r="AL137" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30786,7 +30790,7 @@
         <v>258</v>
       </c>
       <c r="B138" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C138" s="159"/>
       <c r="D138" s="159"/>
@@ -30820,13 +30824,13 @@
       <c r="AF138" s="159"/>
       <c r="AG138" s="159"/>
       <c r="AJ138" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK138" s="3">
         <v>1</v>
       </c>
       <c r="AL138" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -30834,7 +30838,7 @@
         <v>259</v>
       </c>
       <c r="B139" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C139" s="159"/>
       <c r="D139" s="159"/>
@@ -30852,7 +30856,7 @@
       <c r="P139" s="159"/>
       <c r="Q139" s="159"/>
       <c r="R139" s="159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S139" s="159"/>
       <c r="T139" s="159"/>
@@ -31057,7 +31061,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1" s="158"/>
       <c r="D1" s="158"/>
@@ -31336,7 +31340,7 @@
         <v>2</v>
       </c>
       <c r="AL4" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31384,7 +31388,7 @@
         <v>2</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31392,7 +31396,7 @@
         <v>208</v>
       </c>
       <c r="B6" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="287"/>
       <c r="D6" s="287"/>
@@ -31434,7 +31438,7 @@
         <v>2</v>
       </c>
       <c r="AL6" s="46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31442,7 +31446,7 @@
         <v>209</v>
       </c>
       <c r="B7" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" s="245"/>
       <c r="D7" s="245"/>
@@ -31460,13 +31464,13 @@
       <c r="P7" s="245"/>
       <c r="Q7" s="246"/>
       <c r="R7" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S7" s="245"/>
       <c r="T7" s="245"/>
       <c r="U7" s="246"/>
       <c r="V7" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W7" s="245"/>
       <c r="X7" s="245"/>
@@ -31478,19 +31482,19 @@
       <c r="AB7" s="245"/>
       <c r="AC7" s="246"/>
       <c r="AD7" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE7" s="245"/>
       <c r="AF7" s="245"/>
       <c r="AG7" s="246"/>
       <c r="AJ7" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK7" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL7" s="46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31498,7 +31502,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="245"/>
       <c r="D8" s="245"/>
@@ -31516,7 +31520,7 @@
       <c r="P8" s="245"/>
       <c r="Q8" s="246"/>
       <c r="R8" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S8" s="245"/>
       <c r="T8" s="245"/>
@@ -31526,7 +31530,7 @@
       <c r="X8" s="245"/>
       <c r="Y8" s="246"/>
       <c r="Z8" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA8" s="245"/>
       <c r="AB8" s="245"/>
@@ -31536,13 +31540,13 @@
       <c r="AF8" s="245"/>
       <c r="AG8" s="246"/>
       <c r="AJ8" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK8" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL8" s="46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31550,7 +31554,7 @@
         <v>251</v>
       </c>
       <c r="B9" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" s="245"/>
       <c r="D9" s="245"/>
@@ -31568,7 +31572,7 @@
       <c r="P9" s="245"/>
       <c r="Q9" s="246"/>
       <c r="R9" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S9" s="245"/>
       <c r="T9" s="245"/>
@@ -31589,10 +31593,10 @@
         <v>202</v>
       </c>
       <c r="AK9" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL9" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL9" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31600,7 +31604,7 @@
         <v>252</v>
       </c>
       <c r="B10" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C10" s="245"/>
       <c r="D10" s="245"/>
@@ -31634,13 +31638,13 @@
       <c r="AF10" s="245"/>
       <c r="AG10" s="246"/>
       <c r="AJ10" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK10" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL10" s="46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31648,7 +31652,7 @@
         <v>253</v>
       </c>
       <c r="B11" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C11" s="245"/>
       <c r="D11" s="245"/>
@@ -31684,13 +31688,13 @@
       <c r="AF11" s="245"/>
       <c r="AG11" s="246"/>
       <c r="AJ11" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK11" s="44">
         <v>2</v>
       </c>
       <c r="AL11" s="46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31716,7 +31720,7 @@
       <c r="P12" s="245"/>
       <c r="Q12" s="246"/>
       <c r="R12" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S12" s="245"/>
       <c r="T12" s="245"/>
@@ -31734,13 +31738,13 @@
       <c r="AF12" s="245"/>
       <c r="AG12" s="246"/>
       <c r="AJ12" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK12" s="44">
         <v>1</v>
       </c>
       <c r="AL12" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31748,7 +31752,7 @@
         <v>255</v>
       </c>
       <c r="B13" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="245"/>
       <c r="D13" s="245"/>
@@ -31788,7 +31792,7 @@
         <v>1</v>
       </c>
       <c r="AL13" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31796,7 +31800,7 @@
         <v>256</v>
       </c>
       <c r="B14" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="245"/>
       <c r="D14" s="245"/>
@@ -31830,13 +31834,13 @@
       <c r="AF14" s="245"/>
       <c r="AG14" s="246"/>
       <c r="AJ14" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK14" s="44">
         <v>2</v>
       </c>
       <c r="AL14" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31844,7 +31848,7 @@
         <v>257</v>
       </c>
       <c r="B15" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="245"/>
       <c r="D15" s="245"/>
@@ -31862,7 +31866,7 @@
       <c r="P15" s="245"/>
       <c r="Q15" s="246"/>
       <c r="R15" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S15" s="245"/>
       <c r="T15" s="245"/>
@@ -31872,7 +31876,7 @@
       <c r="X15" s="245"/>
       <c r="Y15" s="246"/>
       <c r="Z15" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA15" s="245"/>
       <c r="AB15" s="245"/>
@@ -31882,13 +31886,13 @@
       <c r="AF15" s="245"/>
       <c r="AG15" s="246"/>
       <c r="AJ15" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK15" s="44">
         <v>8</v>
       </c>
       <c r="AL15" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31896,7 +31900,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="244" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="245"/>
       <c r="D16" s="245"/>
@@ -31936,7 +31940,7 @@
         <v>4</v>
       </c>
       <c r="AL16" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31944,7 +31948,7 @@
         <v>259</v>
       </c>
       <c r="B17" s="244" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="245"/>
       <c r="D17" s="245"/>
@@ -31978,13 +31982,13 @@
       <c r="AF17" s="245"/>
       <c r="AG17" s="246"/>
       <c r="AJ17" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK17" s="44">
         <v>10</v>
       </c>
       <c r="AL17" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -31992,7 +31996,7 @@
         <v>260</v>
       </c>
       <c r="B18" s="244" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="245"/>
       <c r="D18" s="245"/>
@@ -32026,51 +32030,51 @@
       <c r="AF18" s="306"/>
       <c r="AG18" s="307"/>
       <c r="AJ18" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK18" s="44">
         <v>2</v>
       </c>
       <c r="AL18" s="46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ19" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK19" s="44">
         <v>1</v>
       </c>
       <c r="AL19" s="46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ20" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK20" s="44">
         <v>1</v>
       </c>
       <c r="AL20" s="46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ21" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AK21" s="44">
         <v>10</v>
       </c>
       <c r="AL21" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="158" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C25" s="158"/>
       <c r="D25" s="158"/>
@@ -32349,7 +32353,7 @@
         <v>2</v>
       </c>
       <c r="AL28" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32397,7 +32401,7 @@
         <v>2</v>
       </c>
       <c r="AL29" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32405,7 +32409,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="287"/>
       <c r="D30" s="287"/>
@@ -32447,7 +32451,7 @@
         <v>2</v>
       </c>
       <c r="AL30" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32455,7 +32459,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C31" s="245"/>
       <c r="D31" s="245"/>
@@ -32473,13 +32477,13 @@
       <c r="P31" s="245"/>
       <c r="Q31" s="246"/>
       <c r="R31" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S31" s="245"/>
       <c r="T31" s="245"/>
       <c r="U31" s="246"/>
       <c r="V31" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W31" s="245"/>
       <c r="X31" s="245"/>
@@ -32491,19 +32495,19 @@
       <c r="AB31" s="245"/>
       <c r="AC31" s="246"/>
       <c r="AD31" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE31" s="245"/>
       <c r="AF31" s="245"/>
       <c r="AG31" s="246"/>
       <c r="AJ31" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK31" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL31" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32511,7 +32515,7 @@
         <v>210</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C32" s="245"/>
       <c r="D32" s="245"/>
@@ -32529,7 +32533,7 @@
       <c r="P32" s="245"/>
       <c r="Q32" s="246"/>
       <c r="R32" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S32" s="245"/>
       <c r="T32" s="245"/>
@@ -32539,7 +32543,7 @@
       <c r="X32" s="245"/>
       <c r="Y32" s="246"/>
       <c r="Z32" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA32" s="245"/>
       <c r="AB32" s="245"/>
@@ -32549,13 +32553,13 @@
       <c r="AF32" s="245"/>
       <c r="AG32" s="246"/>
       <c r="AJ32" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK32" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL32" s="46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32563,7 +32567,7 @@
         <v>251</v>
       </c>
       <c r="B33" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C33" s="245"/>
       <c r="D33" s="245"/>
@@ -32581,7 +32585,7 @@
       <c r="P33" s="245"/>
       <c r="Q33" s="246"/>
       <c r="R33" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S33" s="245"/>
       <c r="T33" s="245"/>
@@ -32602,10 +32606,10 @@
         <v>202</v>
       </c>
       <c r="AK33" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL33" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL33" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32613,7 +32617,7 @@
         <v>252</v>
       </c>
       <c r="B34" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C34" s="245"/>
       <c r="D34" s="245"/>
@@ -32647,13 +32651,13 @@
       <c r="AF34" s="245"/>
       <c r="AG34" s="246"/>
       <c r="AJ34" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK34" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL34" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32661,7 +32665,7 @@
         <v>253</v>
       </c>
       <c r="B35" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C35" s="245"/>
       <c r="D35" s="245"/>
@@ -32697,13 +32701,13 @@
       <c r="AF35" s="245"/>
       <c r="AG35" s="246"/>
       <c r="AJ35" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK35" s="44">
         <v>2</v>
       </c>
       <c r="AL35" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32729,7 +32733,7 @@
       <c r="P36" s="245"/>
       <c r="Q36" s="246"/>
       <c r="R36" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S36" s="245"/>
       <c r="T36" s="245"/>
@@ -32747,13 +32751,13 @@
       <c r="AF36" s="245"/>
       <c r="AG36" s="246"/>
       <c r="AJ36" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK36" s="44">
         <v>1</v>
       </c>
       <c r="AL36" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32761,7 +32765,7 @@
         <v>255</v>
       </c>
       <c r="B37" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C37" s="245"/>
       <c r="D37" s="245"/>
@@ -32801,7 +32805,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32809,7 +32813,7 @@
         <v>256</v>
       </c>
       <c r="B38" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" s="245"/>
       <c r="D38" s="245"/>
@@ -32843,13 +32847,13 @@
       <c r="AF38" s="245"/>
       <c r="AG38" s="246"/>
       <c r="AJ38" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK38" s="44">
         <v>2</v>
       </c>
       <c r="AL38" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32857,7 +32861,7 @@
         <v>257</v>
       </c>
       <c r="B39" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="245"/>
       <c r="D39" s="245"/>
@@ -32875,7 +32879,7 @@
       <c r="P39" s="245"/>
       <c r="Q39" s="246"/>
       <c r="R39" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S39" s="245"/>
       <c r="T39" s="245"/>
@@ -32885,7 +32889,7 @@
       <c r="X39" s="245"/>
       <c r="Y39" s="246"/>
       <c r="Z39" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA39" s="245"/>
       <c r="AB39" s="245"/>
@@ -32895,13 +32899,13 @@
       <c r="AF39" s="245"/>
       <c r="AG39" s="246"/>
       <c r="AJ39" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK39" s="44">
         <v>8</v>
       </c>
       <c r="AL39" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32909,7 +32913,7 @@
         <v>258</v>
       </c>
       <c r="B40" s="244" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C40" s="245"/>
       <c r="D40" s="245"/>
@@ -32949,7 +32953,7 @@
         <v>4</v>
       </c>
       <c r="AL40" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -32957,7 +32961,7 @@
         <v>259</v>
       </c>
       <c r="B41" s="244" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C41" s="245"/>
       <c r="D41" s="245"/>
@@ -32991,13 +32995,13 @@
       <c r="AF41" s="245"/>
       <c r="AG41" s="246"/>
       <c r="AJ41" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK41" s="44">
         <v>10</v>
       </c>
       <c r="AL41" s="46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33005,7 +33009,7 @@
         <v>260</v>
       </c>
       <c r="B42" s="244" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C42" s="245"/>
       <c r="D42" s="245"/>
@@ -33039,51 +33043,51 @@
       <c r="AF42" s="306"/>
       <c r="AG42" s="307"/>
       <c r="AJ42" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK42" s="44">
         <v>2</v>
       </c>
       <c r="AL42" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ43" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK43" s="44">
         <v>1</v>
       </c>
       <c r="AL43" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ44" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK44" s="44">
         <v>1</v>
       </c>
       <c r="AL44" s="46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ45" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AK45" s="44">
         <v>10</v>
       </c>
       <c r="AL45" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="158" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C49" s="158"/>
       <c r="D49" s="158"/>
@@ -33362,7 +33366,7 @@
         <v>2</v>
       </c>
       <c r="AL52" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33410,7 +33414,7 @@
         <v>2</v>
       </c>
       <c r="AL53" s="45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33418,7 +33422,7 @@
         <v>208</v>
       </c>
       <c r="B54" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C54" s="287"/>
       <c r="D54" s="287"/>
@@ -33460,7 +33464,7 @@
         <v>2</v>
       </c>
       <c r="AL54" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33468,7 +33472,7 @@
         <v>209</v>
       </c>
       <c r="B55" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C55" s="245"/>
       <c r="D55" s="245"/>
@@ -33486,13 +33490,13 @@
       <c r="P55" s="245"/>
       <c r="Q55" s="246"/>
       <c r="R55" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S55" s="245"/>
       <c r="T55" s="245"/>
       <c r="U55" s="246"/>
       <c r="V55" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W55" s="245"/>
       <c r="X55" s="245"/>
@@ -33504,19 +33508,19 @@
       <c r="AB55" s="245"/>
       <c r="AC55" s="246"/>
       <c r="AD55" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE55" s="245"/>
       <c r="AF55" s="245"/>
       <c r="AG55" s="246"/>
       <c r="AJ55" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK55" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL55" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33524,7 +33528,7 @@
         <v>210</v>
       </c>
       <c r="B56" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C56" s="245"/>
       <c r="D56" s="245"/>
@@ -33542,7 +33546,7 @@
       <c r="P56" s="245"/>
       <c r="Q56" s="246"/>
       <c r="R56" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S56" s="245"/>
       <c r="T56" s="245"/>
@@ -33552,7 +33556,7 @@
       <c r="X56" s="245"/>
       <c r="Y56" s="246"/>
       <c r="Z56" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA56" s="245"/>
       <c r="AB56" s="245"/>
@@ -33562,13 +33566,13 @@
       <c r="AF56" s="245"/>
       <c r="AG56" s="246"/>
       <c r="AJ56" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK56" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL56" s="46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33576,7 +33580,7 @@
         <v>251</v>
       </c>
       <c r="B57" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C57" s="245"/>
       <c r="D57" s="245"/>
@@ -33594,7 +33598,7 @@
       <c r="P57" s="245"/>
       <c r="Q57" s="246"/>
       <c r="R57" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S57" s="245"/>
       <c r="T57" s="245"/>
@@ -33615,10 +33619,10 @@
         <v>202</v>
       </c>
       <c r="AK57" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL57" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL57" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33626,7 +33630,7 @@
         <v>252</v>
       </c>
       <c r="B58" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C58" s="245"/>
       <c r="D58" s="245"/>
@@ -33660,13 +33664,13 @@
       <c r="AF58" s="245"/>
       <c r="AG58" s="246"/>
       <c r="AJ58" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK58" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL58" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33674,7 +33678,7 @@
         <v>253</v>
       </c>
       <c r="B59" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C59" s="245"/>
       <c r="D59" s="245"/>
@@ -33710,13 +33714,13 @@
       <c r="AF59" s="245"/>
       <c r="AG59" s="246"/>
       <c r="AJ59" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK59" s="44">
         <v>2</v>
       </c>
       <c r="AL59" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33742,7 +33746,7 @@
       <c r="P60" s="245"/>
       <c r="Q60" s="246"/>
       <c r="R60" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S60" s="245"/>
       <c r="T60" s="245"/>
@@ -33760,13 +33764,13 @@
       <c r="AF60" s="245"/>
       <c r="AG60" s="246"/>
       <c r="AJ60" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK60" s="44">
         <v>1</v>
       </c>
       <c r="AL60" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33774,7 +33778,7 @@
         <v>255</v>
       </c>
       <c r="B61" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C61" s="245"/>
       <c r="D61" s="245"/>
@@ -33814,7 +33818,7 @@
         <v>1</v>
       </c>
       <c r="AL61" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33822,7 +33826,7 @@
         <v>256</v>
       </c>
       <c r="B62" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="245"/>
       <c r="D62" s="245"/>
@@ -33856,13 +33860,13 @@
       <c r="AF62" s="245"/>
       <c r="AG62" s="246"/>
       <c r="AJ62" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK62" s="44">
         <v>2</v>
       </c>
       <c r="AL62" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33870,7 +33874,7 @@
         <v>257</v>
       </c>
       <c r="B63" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C63" s="245"/>
       <c r="D63" s="245"/>
@@ -33888,7 +33892,7 @@
       <c r="P63" s="245"/>
       <c r="Q63" s="246"/>
       <c r="R63" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S63" s="245"/>
       <c r="T63" s="245"/>
@@ -33898,7 +33902,7 @@
       <c r="X63" s="245"/>
       <c r="Y63" s="246"/>
       <c r="Z63" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA63" s="245"/>
       <c r="AB63" s="245"/>
@@ -33908,13 +33912,13 @@
       <c r="AF63" s="245"/>
       <c r="AG63" s="246"/>
       <c r="AJ63" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK63" s="44">
         <v>8</v>
       </c>
       <c r="AL63" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33922,7 +33926,7 @@
         <v>258</v>
       </c>
       <c r="B64" s="244" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C64" s="245"/>
       <c r="D64" s="245"/>
@@ -33962,7 +33966,7 @@
         <v>4</v>
       </c>
       <c r="AL64" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -33970,7 +33974,7 @@
         <v>259</v>
       </c>
       <c r="B65" s="244" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C65" s="245"/>
       <c r="D65" s="245"/>
@@ -34004,13 +34008,13 @@
       <c r="AF65" s="245"/>
       <c r="AG65" s="246"/>
       <c r="AJ65" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK65" s="44">
         <v>10</v>
       </c>
       <c r="AL65" s="46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34018,7 +34022,7 @@
         <v>260</v>
       </c>
       <c r="B66" s="244" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C66" s="245"/>
       <c r="D66" s="245"/>
@@ -34036,7 +34040,7 @@
       <c r="P66" s="245"/>
       <c r="Q66" s="246"/>
       <c r="R66" s="241" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S66" s="242"/>
       <c r="T66" s="242"/>
@@ -34054,13 +34058,13 @@
       <c r="AF66" s="242"/>
       <c r="AG66" s="243"/>
       <c r="AJ66" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK66" s="44">
         <v>2</v>
       </c>
       <c r="AL66" s="46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34068,7 +34072,7 @@
         <v>261</v>
       </c>
       <c r="B67" s="239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C67" s="239"/>
       <c r="D67" s="239"/>
@@ -34102,13 +34106,13 @@
       <c r="AF67" s="239"/>
       <c r="AG67" s="239"/>
       <c r="AJ67" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK67" s="44">
         <v>1</v>
       </c>
       <c r="AL67" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34116,7 +34120,7 @@
         <v>262</v>
       </c>
       <c r="B68" s="239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C68" s="239"/>
       <c r="D68" s="239"/>
@@ -34150,40 +34154,40 @@
       <c r="AF68" s="239"/>
       <c r="AG68" s="239"/>
       <c r="AJ68" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK68" s="44">
         <v>1</v>
       </c>
       <c r="AL68" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ69" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AK69" s="44">
         <v>10</v>
       </c>
       <c r="AL69" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ70" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AK70" s="44">
         <v>10</v>
       </c>
       <c r="AL70" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="158" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C75" s="158"/>
       <c r="D75" s="158"/>
@@ -34462,7 +34466,7 @@
         <v>2</v>
       </c>
       <c r="AL78" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34510,7 +34514,7 @@
         <v>2</v>
       </c>
       <c r="AL79" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34518,7 +34522,7 @@
         <v>208</v>
       </c>
       <c r="B80" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C80" s="287"/>
       <c r="D80" s="287"/>
@@ -34560,7 +34564,7 @@
         <v>2</v>
       </c>
       <c r="AL80" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34568,7 +34572,7 @@
         <v>209</v>
       </c>
       <c r="B81" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C81" s="245"/>
       <c r="D81" s="245"/>
@@ -34586,13 +34590,13 @@
       <c r="P81" s="245"/>
       <c r="Q81" s="246"/>
       <c r="R81" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S81" s="245"/>
       <c r="T81" s="245"/>
       <c r="U81" s="246"/>
       <c r="V81" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W81" s="245"/>
       <c r="X81" s="245"/>
@@ -34604,19 +34608,19 @@
       <c r="AB81" s="245"/>
       <c r="AC81" s="246"/>
       <c r="AD81" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE81" s="245"/>
       <c r="AF81" s="245"/>
       <c r="AG81" s="246"/>
       <c r="AJ81" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK81" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL81" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34624,7 +34628,7 @@
         <v>210</v>
       </c>
       <c r="B82" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C82" s="245"/>
       <c r="D82" s="245"/>
@@ -34642,7 +34646,7 @@
       <c r="P82" s="245"/>
       <c r="Q82" s="246"/>
       <c r="R82" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S82" s="245"/>
       <c r="T82" s="245"/>
@@ -34652,7 +34656,7 @@
       <c r="X82" s="245"/>
       <c r="Y82" s="246"/>
       <c r="Z82" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA82" s="245"/>
       <c r="AB82" s="245"/>
@@ -34662,13 +34666,13 @@
       <c r="AF82" s="245"/>
       <c r="AG82" s="246"/>
       <c r="AJ82" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK82" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL82" s="46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34676,7 +34680,7 @@
         <v>251</v>
       </c>
       <c r="B83" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C83" s="245"/>
       <c r="D83" s="245"/>
@@ -34694,7 +34698,7 @@
       <c r="P83" s="245"/>
       <c r="Q83" s="246"/>
       <c r="R83" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S83" s="245"/>
       <c r="T83" s="245"/>
@@ -34715,10 +34719,10 @@
         <v>202</v>
       </c>
       <c r="AK83" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL83" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL83" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34726,7 +34730,7 @@
         <v>252</v>
       </c>
       <c r="B84" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C84" s="245"/>
       <c r="D84" s="245"/>
@@ -34760,13 +34764,13 @@
       <c r="AF84" s="245"/>
       <c r="AG84" s="246"/>
       <c r="AJ84" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK84" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL84" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34774,7 +34778,7 @@
         <v>253</v>
       </c>
       <c r="B85" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C85" s="245"/>
       <c r="D85" s="245"/>
@@ -34810,13 +34814,13 @@
       <c r="AF85" s="245"/>
       <c r="AG85" s="246"/>
       <c r="AJ85" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK85" s="44">
         <v>2</v>
       </c>
       <c r="AL85" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34842,7 +34846,7 @@
       <c r="P86" s="245"/>
       <c r="Q86" s="246"/>
       <c r="R86" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S86" s="245"/>
       <c r="T86" s="245"/>
@@ -34860,13 +34864,13 @@
       <c r="AF86" s="245"/>
       <c r="AG86" s="246"/>
       <c r="AJ86" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK86" s="44">
         <v>1</v>
       </c>
       <c r="AL86" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34874,7 +34878,7 @@
         <v>255</v>
       </c>
       <c r="B87" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C87" s="245"/>
       <c r="D87" s="245"/>
@@ -34914,7 +34918,7 @@
         <v>1</v>
       </c>
       <c r="AL87" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34922,7 +34926,7 @@
         <v>256</v>
       </c>
       <c r="B88" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C88" s="245"/>
       <c r="D88" s="245"/>
@@ -34956,13 +34960,13 @@
       <c r="AF88" s="245"/>
       <c r="AG88" s="246"/>
       <c r="AJ88" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK88" s="44">
         <v>2</v>
       </c>
       <c r="AL88" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -34970,7 +34974,7 @@
         <v>257</v>
       </c>
       <c r="B89" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C89" s="245"/>
       <c r="D89" s="245"/>
@@ -34988,7 +34992,7 @@
       <c r="P89" s="245"/>
       <c r="Q89" s="246"/>
       <c r="R89" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S89" s="245"/>
       <c r="T89" s="245"/>
@@ -34998,7 +35002,7 @@
       <c r="X89" s="245"/>
       <c r="Y89" s="246"/>
       <c r="Z89" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA89" s="245"/>
       <c r="AB89" s="245"/>
@@ -35008,13 +35012,13 @@
       <c r="AF89" s="245"/>
       <c r="AG89" s="246"/>
       <c r="AJ89" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK89" s="44">
         <v>8</v>
       </c>
       <c r="AL89" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35022,7 +35026,7 @@
         <v>258</v>
       </c>
       <c r="B90" s="244" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C90" s="245"/>
       <c r="D90" s="245"/>
@@ -35062,7 +35066,7 @@
         <v>4</v>
       </c>
       <c r="AL90" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35070,7 +35074,7 @@
         <v>259</v>
       </c>
       <c r="B91" s="244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C91" s="245"/>
       <c r="D91" s="245"/>
@@ -35104,13 +35108,13 @@
       <c r="AF91" s="245"/>
       <c r="AG91" s="246"/>
       <c r="AJ91" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK91" s="44">
         <v>10</v>
       </c>
       <c r="AL91" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35118,7 +35122,7 @@
         <v>260</v>
       </c>
       <c r="B92" s="244" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C92" s="245"/>
       <c r="D92" s="245"/>
@@ -35152,51 +35156,51 @@
       <c r="AF92" s="306"/>
       <c r="AG92" s="307"/>
       <c r="AJ92" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK92" s="44">
         <v>2</v>
       </c>
       <c r="AL92" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ93" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK93" s="44">
         <v>1</v>
       </c>
       <c r="AL93" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ94" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK94" s="44">
         <v>1</v>
       </c>
       <c r="AL94" s="46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ95" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AK95" s="44">
         <v>10</v>
       </c>
       <c r="AL95" s="46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="158" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C99" s="158"/>
       <c r="D99" s="158"/>
@@ -35475,7 +35479,7 @@
         <v>2</v>
       </c>
       <c r="AL102" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35523,7 +35527,7 @@
         <v>2</v>
       </c>
       <c r="AL103" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35531,7 +35535,7 @@
         <v>208</v>
       </c>
       <c r="B104" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C104" s="287"/>
       <c r="D104" s="287"/>
@@ -35573,7 +35577,7 @@
         <v>2</v>
       </c>
       <c r="AL104" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35581,7 +35585,7 @@
         <v>209</v>
       </c>
       <c r="B105" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C105" s="245"/>
       <c r="D105" s="245"/>
@@ -35599,13 +35603,13 @@
       <c r="P105" s="245"/>
       <c r="Q105" s="246"/>
       <c r="R105" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S105" s="245"/>
       <c r="T105" s="245"/>
       <c r="U105" s="246"/>
       <c r="V105" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W105" s="245"/>
       <c r="X105" s="245"/>
@@ -35617,19 +35621,19 @@
       <c r="AB105" s="245"/>
       <c r="AC105" s="246"/>
       <c r="AD105" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE105" s="245"/>
       <c r="AF105" s="245"/>
       <c r="AG105" s="246"/>
       <c r="AJ105" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK105" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL105" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35637,7 +35641,7 @@
         <v>210</v>
       </c>
       <c r="B106" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C106" s="245"/>
       <c r="D106" s="245"/>
@@ -35655,7 +35659,7 @@
       <c r="P106" s="245"/>
       <c r="Q106" s="246"/>
       <c r="R106" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S106" s="245"/>
       <c r="T106" s="245"/>
@@ -35665,7 +35669,7 @@
       <c r="X106" s="245"/>
       <c r="Y106" s="246"/>
       <c r="Z106" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA106" s="245"/>
       <c r="AB106" s="245"/>
@@ -35675,13 +35679,13 @@
       <c r="AF106" s="245"/>
       <c r="AG106" s="246"/>
       <c r="AJ106" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK106" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL106" s="46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="107" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35689,7 +35693,7 @@
         <v>251</v>
       </c>
       <c r="B107" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C107" s="245"/>
       <c r="D107" s="245"/>
@@ -35707,7 +35711,7 @@
       <c r="P107" s="245"/>
       <c r="Q107" s="246"/>
       <c r="R107" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S107" s="245"/>
       <c r="T107" s="245"/>
@@ -35728,10 +35732,10 @@
         <v>202</v>
       </c>
       <c r="AK107" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL107" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL107" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35739,7 +35743,7 @@
         <v>252</v>
       </c>
       <c r="B108" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C108" s="245"/>
       <c r="D108" s="245"/>
@@ -35773,13 +35777,13 @@
       <c r="AF108" s="245"/>
       <c r="AG108" s="246"/>
       <c r="AJ108" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK108" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL108" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35787,7 +35791,7 @@
         <v>253</v>
       </c>
       <c r="B109" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C109" s="245"/>
       <c r="D109" s="245"/>
@@ -35823,13 +35827,13 @@
       <c r="AF109" s="245"/>
       <c r="AG109" s="246"/>
       <c r="AJ109" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK109" s="44">
         <v>2</v>
       </c>
       <c r="AL109" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35855,7 +35859,7 @@
       <c r="P110" s="245"/>
       <c r="Q110" s="246"/>
       <c r="R110" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S110" s="245"/>
       <c r="T110" s="245"/>
@@ -35873,13 +35877,13 @@
       <c r="AF110" s="245"/>
       <c r="AG110" s="246"/>
       <c r="AJ110" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK110" s="44">
         <v>1</v>
       </c>
       <c r="AL110" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35887,7 +35891,7 @@
         <v>255</v>
       </c>
       <c r="B111" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C111" s="245"/>
       <c r="D111" s="245"/>
@@ -35927,7 +35931,7 @@
         <v>1</v>
       </c>
       <c r="AL111" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35935,7 +35939,7 @@
         <v>256</v>
       </c>
       <c r="B112" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C112" s="245"/>
       <c r="D112" s="245"/>
@@ -35969,13 +35973,13 @@
       <c r="AF112" s="245"/>
       <c r="AG112" s="246"/>
       <c r="AJ112" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK112" s="44">
         <v>2</v>
       </c>
       <c r="AL112" s="46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -35983,7 +35987,7 @@
         <v>257</v>
       </c>
       <c r="B113" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C113" s="245"/>
       <c r="D113" s="245"/>
@@ -36001,7 +36005,7 @@
       <c r="P113" s="245"/>
       <c r="Q113" s="246"/>
       <c r="R113" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S113" s="245"/>
       <c r="T113" s="245"/>
@@ -36011,7 +36015,7 @@
       <c r="X113" s="245"/>
       <c r="Y113" s="246"/>
       <c r="Z113" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA113" s="245"/>
       <c r="AB113" s="245"/>
@@ -36021,13 +36025,13 @@
       <c r="AF113" s="245"/>
       <c r="AG113" s="246"/>
       <c r="AJ113" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK113" s="44">
         <v>8</v>
       </c>
       <c r="AL113" s="46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36035,7 +36039,7 @@
         <v>258</v>
       </c>
       <c r="B114" s="244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C114" s="245"/>
       <c r="D114" s="245"/>
@@ -36075,7 +36079,7 @@
         <v>4</v>
       </c>
       <c r="AL114" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36083,7 +36087,7 @@
         <v>259</v>
       </c>
       <c r="B115" s="244" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C115" s="245"/>
       <c r="D115" s="245"/>
@@ -36117,13 +36121,13 @@
       <c r="AF115" s="245"/>
       <c r="AG115" s="246"/>
       <c r="AJ115" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK115" s="44">
         <v>10</v>
       </c>
       <c r="AL115" s="46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36131,7 +36135,7 @@
         <v>260</v>
       </c>
       <c r="B116" s="244" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C116" s="245"/>
       <c r="D116" s="245"/>
@@ -36149,7 +36153,7 @@
       <c r="P116" s="245"/>
       <c r="Q116" s="246"/>
       <c r="R116" s="241" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S116" s="242"/>
       <c r="T116" s="242"/>
@@ -36167,13 +36171,13 @@
       <c r="AF116" s="242"/>
       <c r="AG116" s="243"/>
       <c r="AJ116" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK116" s="44">
         <v>2</v>
       </c>
       <c r="AL116" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36181,7 +36185,7 @@
         <v>261</v>
       </c>
       <c r="B117" s="239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C117" s="239"/>
       <c r="D117" s="239"/>
@@ -36215,13 +36219,13 @@
       <c r="AF117" s="239"/>
       <c r="AG117" s="239"/>
       <c r="AJ117" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK117" s="44">
         <v>1</v>
       </c>
       <c r="AL117" s="46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36229,7 +36233,7 @@
         <v>262</v>
       </c>
       <c r="B118" s="239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C118" s="239"/>
       <c r="D118" s="239"/>
@@ -36263,40 +36267,40 @@
       <c r="AF118" s="239"/>
       <c r="AG118" s="239"/>
       <c r="AJ118" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK118" s="44">
         <v>1</v>
       </c>
       <c r="AL118" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ119" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AK119" s="44">
         <v>10</v>
       </c>
       <c r="AL119" s="46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ120" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AK120" s="44">
         <v>10</v>
       </c>
       <c r="AL120" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="1:38" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="158" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C124" s="158"/>
       <c r="D124" s="158"/>
@@ -36575,7 +36579,7 @@
         <v>2</v>
       </c>
       <c r="AL127" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36623,7 +36627,7 @@
         <v>2</v>
       </c>
       <c r="AL128" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36631,7 +36635,7 @@
         <v>208</v>
       </c>
       <c r="B129" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C129" s="287"/>
       <c r="D129" s="287"/>
@@ -36673,7 +36677,7 @@
         <v>2</v>
       </c>
       <c r="AL129" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36681,7 +36685,7 @@
         <v>209</v>
       </c>
       <c r="B130" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C130" s="245"/>
       <c r="D130" s="245"/>
@@ -36699,13 +36703,13 @@
       <c r="P130" s="245"/>
       <c r="Q130" s="246"/>
       <c r="R130" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S130" s="245"/>
       <c r="T130" s="245"/>
       <c r="U130" s="246"/>
       <c r="V130" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W130" s="245"/>
       <c r="X130" s="245"/>
@@ -36717,19 +36721,19 @@
       <c r="AB130" s="245"/>
       <c r="AC130" s="246"/>
       <c r="AD130" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE130" s="245"/>
       <c r="AF130" s="245"/>
       <c r="AG130" s="246"/>
       <c r="AJ130" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK130" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL130" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36737,7 +36741,7 @@
         <v>210</v>
       </c>
       <c r="B131" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C131" s="245"/>
       <c r="D131" s="245"/>
@@ -36755,7 +36759,7 @@
       <c r="P131" s="245"/>
       <c r="Q131" s="246"/>
       <c r="R131" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S131" s="245"/>
       <c r="T131" s="245"/>
@@ -36765,7 +36769,7 @@
       <c r="X131" s="245"/>
       <c r="Y131" s="246"/>
       <c r="Z131" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA131" s="245"/>
       <c r="AB131" s="245"/>
@@ -36775,13 +36779,13 @@
       <c r="AF131" s="245"/>
       <c r="AG131" s="246"/>
       <c r="AJ131" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK131" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL131" s="46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36789,7 +36793,7 @@
         <v>251</v>
       </c>
       <c r="B132" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C132" s="245"/>
       <c r="D132" s="245"/>
@@ -36807,7 +36811,7 @@
       <c r="P132" s="245"/>
       <c r="Q132" s="246"/>
       <c r="R132" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S132" s="245"/>
       <c r="T132" s="245"/>
@@ -36828,10 +36832,10 @@
         <v>202</v>
       </c>
       <c r="AK132" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL132" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL132" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36839,7 +36843,7 @@
         <v>252</v>
       </c>
       <c r="B133" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C133" s="245"/>
       <c r="D133" s="245"/>
@@ -36873,13 +36877,13 @@
       <c r="AF133" s="245"/>
       <c r="AG133" s="246"/>
       <c r="AJ133" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK133" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL133" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36887,7 +36891,7 @@
         <v>253</v>
       </c>
       <c r="B134" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C134" s="245"/>
       <c r="D134" s="245"/>
@@ -36923,13 +36927,13 @@
       <c r="AF134" s="245"/>
       <c r="AG134" s="246"/>
       <c r="AJ134" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK134" s="44">
         <v>2</v>
       </c>
       <c r="AL134" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36955,7 +36959,7 @@
       <c r="P135" s="245"/>
       <c r="Q135" s="246"/>
       <c r="R135" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S135" s="245"/>
       <c r="T135" s="245"/>
@@ -36973,13 +36977,13 @@
       <c r="AF135" s="245"/>
       <c r="AG135" s="246"/>
       <c r="AJ135" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK135" s="44">
         <v>1</v>
       </c>
       <c r="AL135" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -36987,7 +36991,7 @@
         <v>255</v>
       </c>
       <c r="B136" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C136" s="245"/>
       <c r="D136" s="245"/>
@@ -37027,7 +37031,7 @@
         <v>1</v>
       </c>
       <c r="AL136" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37035,7 +37039,7 @@
         <v>256</v>
       </c>
       <c r="B137" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C137" s="245"/>
       <c r="D137" s="245"/>
@@ -37069,13 +37073,13 @@
       <c r="AF137" s="245"/>
       <c r="AG137" s="246"/>
       <c r="AJ137" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK137" s="44">
         <v>2</v>
       </c>
       <c r="AL137" s="46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37083,7 +37087,7 @@
         <v>257</v>
       </c>
       <c r="B138" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C138" s="245"/>
       <c r="D138" s="245"/>
@@ -37101,7 +37105,7 @@
       <c r="P138" s="245"/>
       <c r="Q138" s="246"/>
       <c r="R138" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S138" s="245"/>
       <c r="T138" s="245"/>
@@ -37111,7 +37115,7 @@
       <c r="X138" s="245"/>
       <c r="Y138" s="246"/>
       <c r="Z138" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA138" s="245"/>
       <c r="AB138" s="245"/>
@@ -37121,13 +37125,13 @@
       <c r="AF138" s="245"/>
       <c r="AG138" s="246"/>
       <c r="AJ138" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK138" s="44">
         <v>8</v>
       </c>
       <c r="AL138" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37135,7 +37139,7 @@
         <v>258</v>
       </c>
       <c r="B139" s="244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C139" s="245"/>
       <c r="D139" s="245"/>
@@ -37175,7 +37179,7 @@
         <v>4</v>
       </c>
       <c r="AL139" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37183,7 +37187,7 @@
         <v>259</v>
       </c>
       <c r="B140" s="244" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C140" s="245"/>
       <c r="D140" s="245"/>
@@ -37217,13 +37221,13 @@
       <c r="AF140" s="245"/>
       <c r="AG140" s="246"/>
       <c r="AJ140" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK140" s="44">
         <v>10</v>
       </c>
       <c r="AL140" s="46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37231,7 +37235,7 @@
         <v>260</v>
       </c>
       <c r="B141" s="244" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C141" s="245"/>
       <c r="D141" s="245"/>
@@ -37249,7 +37253,7 @@
       <c r="P141" s="245"/>
       <c r="Q141" s="246"/>
       <c r="R141" s="241" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S141" s="242"/>
       <c r="T141" s="242"/>
@@ -37267,13 +37271,13 @@
       <c r="AF141" s="242"/>
       <c r="AG141" s="243"/>
       <c r="AJ141" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK141" s="44">
         <v>2</v>
       </c>
       <c r="AL141" s="46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="142" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37281,7 +37285,7 @@
         <v>261</v>
       </c>
       <c r="B142" s="239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C142" s="239"/>
       <c r="D142" s="239"/>
@@ -37315,13 +37319,13 @@
       <c r="AF142" s="239"/>
       <c r="AG142" s="239"/>
       <c r="AJ142" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK142" s="44">
         <v>1</v>
       </c>
       <c r="AL142" s="46" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -37329,7 +37333,7 @@
         <v>262</v>
       </c>
       <c r="B143" s="239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C143" s="239"/>
       <c r="D143" s="239"/>
@@ -37363,41 +37367,41 @@
       <c r="AF143" s="239"/>
       <c r="AG143" s="239"/>
       <c r="AJ143" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK143" s="44">
         <v>1</v>
       </c>
       <c r="AL143" s="46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ144" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AK144" s="44">
         <v>10</v>
       </c>
       <c r="AL144" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:38" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ145" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AK145" s="44">
         <v>10</v>
       </c>
       <c r="AL145" s="46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
       <c r="B148" s="158" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C148" s="158"/>
       <c r="D148" s="158"/>
@@ -37676,7 +37680,7 @@
         <v>2</v>
       </c>
       <c r="AL151" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37724,7 +37728,7 @@
         <v>2</v>
       </c>
       <c r="AL152" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37732,7 +37736,7 @@
         <v>208</v>
       </c>
       <c r="B153" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C153" s="287"/>
       <c r="D153" s="287"/>
@@ -37774,7 +37778,7 @@
         <v>2</v>
       </c>
       <c r="AL153" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37782,7 +37786,7 @@
         <v>209</v>
       </c>
       <c r="B154" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C154" s="245"/>
       <c r="D154" s="245"/>
@@ -37800,13 +37804,13 @@
       <c r="P154" s="245"/>
       <c r="Q154" s="246"/>
       <c r="R154" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S154" s="245"/>
       <c r="T154" s="245"/>
       <c r="U154" s="246"/>
       <c r="V154" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W154" s="245"/>
       <c r="X154" s="245"/>
@@ -37818,19 +37822,19 @@
       <c r="AB154" s="245"/>
       <c r="AC154" s="246"/>
       <c r="AD154" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE154" s="245"/>
       <c r="AF154" s="245"/>
       <c r="AG154" s="246"/>
       <c r="AJ154" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK154" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL154" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37838,7 +37842,7 @@
         <v>210</v>
       </c>
       <c r="B155" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C155" s="245"/>
       <c r="D155" s="245"/>
@@ -37856,7 +37860,7 @@
       <c r="P155" s="245"/>
       <c r="Q155" s="246"/>
       <c r="R155" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S155" s="245"/>
       <c r="T155" s="245"/>
@@ -37866,7 +37870,7 @@
       <c r="X155" s="245"/>
       <c r="Y155" s="246"/>
       <c r="Z155" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA155" s="245"/>
       <c r="AB155" s="245"/>
@@ -37876,13 +37880,13 @@
       <c r="AF155" s="245"/>
       <c r="AG155" s="246"/>
       <c r="AJ155" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK155" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL155" s="46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37890,7 +37894,7 @@
         <v>251</v>
       </c>
       <c r="B156" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C156" s="245"/>
       <c r="D156" s="245"/>
@@ -37908,7 +37912,7 @@
       <c r="P156" s="245"/>
       <c r="Q156" s="246"/>
       <c r="R156" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S156" s="245"/>
       <c r="T156" s="245"/>
@@ -37929,10 +37933,10 @@
         <v>202</v>
       </c>
       <c r="AK156" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL156" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL156" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37940,7 +37944,7 @@
         <v>252</v>
       </c>
       <c r="B157" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C157" s="245"/>
       <c r="D157" s="245"/>
@@ -37974,13 +37978,13 @@
       <c r="AF157" s="245"/>
       <c r="AG157" s="246"/>
       <c r="AJ157" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK157" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL157" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -37988,7 +37992,7 @@
         <v>253</v>
       </c>
       <c r="B158" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C158" s="245"/>
       <c r="D158" s="245"/>
@@ -38024,13 +38028,13 @@
       <c r="AF158" s="245"/>
       <c r="AG158" s="246"/>
       <c r="AJ158" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK158" s="44">
         <v>2</v>
       </c>
       <c r="AL158" s="46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38056,7 +38060,7 @@
       <c r="P159" s="245"/>
       <c r="Q159" s="246"/>
       <c r="R159" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S159" s="245"/>
       <c r="T159" s="245"/>
@@ -38074,13 +38078,13 @@
       <c r="AF159" s="245"/>
       <c r="AG159" s="246"/>
       <c r="AJ159" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK159" s="44">
         <v>1</v>
       </c>
       <c r="AL159" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38088,7 +38092,7 @@
         <v>255</v>
       </c>
       <c r="B160" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C160" s="245"/>
       <c r="D160" s="245"/>
@@ -38128,7 +38132,7 @@
         <v>1</v>
       </c>
       <c r="AL160" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38136,7 +38140,7 @@
         <v>256</v>
       </c>
       <c r="B161" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C161" s="245"/>
       <c r="D161" s="245"/>
@@ -38170,13 +38174,13 @@
       <c r="AF161" s="245"/>
       <c r="AG161" s="246"/>
       <c r="AJ161" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK161" s="44">
         <v>2</v>
       </c>
       <c r="AL161" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38184,7 +38188,7 @@
         <v>257</v>
       </c>
       <c r="B162" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C162" s="245"/>
       <c r="D162" s="245"/>
@@ -38202,7 +38206,7 @@
       <c r="P162" s="245"/>
       <c r="Q162" s="246"/>
       <c r="R162" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S162" s="245"/>
       <c r="T162" s="245"/>
@@ -38212,7 +38216,7 @@
       <c r="X162" s="245"/>
       <c r="Y162" s="246"/>
       <c r="Z162" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA162" s="245"/>
       <c r="AB162" s="245"/>
@@ -38222,13 +38226,13 @@
       <c r="AF162" s="245"/>
       <c r="AG162" s="246"/>
       <c r="AJ162" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK162" s="44">
         <v>8</v>
       </c>
       <c r="AL162" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38236,7 +38240,7 @@
         <v>258</v>
       </c>
       <c r="B163" s="244" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C163" s="245"/>
       <c r="D163" s="245"/>
@@ -38276,7 +38280,7 @@
         <v>4</v>
       </c>
       <c r="AL163" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38284,7 +38288,7 @@
         <v>259</v>
       </c>
       <c r="B164" s="244" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C164" s="245"/>
       <c r="D164" s="245"/>
@@ -38318,13 +38322,13 @@
       <c r="AF164" s="245"/>
       <c r="AG164" s="246"/>
       <c r="AJ164" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK164" s="44">
         <v>10</v>
       </c>
       <c r="AL164" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38332,7 +38336,7 @@
         <v>260</v>
       </c>
       <c r="B165" s="244" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C165" s="245"/>
       <c r="D165" s="245"/>
@@ -38350,7 +38354,7 @@
       <c r="P165" s="245"/>
       <c r="Q165" s="246"/>
       <c r="R165" s="241" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S165" s="242"/>
       <c r="T165" s="242"/>
@@ -38368,21 +38372,21 @@
       <c r="AF165" s="242"/>
       <c r="AG165" s="243"/>
       <c r="AJ165" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK165" s="44">
         <v>2</v>
       </c>
       <c r="AL165" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="308" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B166" s="257" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C166" s="257"/>
       <c r="D166" s="257"/>
@@ -38416,13 +38420,13 @@
       <c r="AF166" s="257"/>
       <c r="AG166" s="257"/>
       <c r="AJ166" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK166" s="44">
         <v>1</v>
       </c>
       <c r="AL166" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38460,13 +38464,13 @@
       <c r="AF167" s="257"/>
       <c r="AG167" s="257"/>
       <c r="AJ167" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK167" s="44">
         <v>1</v>
       </c>
       <c r="AL167" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="168" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38504,30 +38508,30 @@
       <c r="AF168" s="257"/>
       <c r="AG168" s="257"/>
       <c r="AJ168" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AK168" s="44">
         <v>10</v>
       </c>
       <c r="AL168" s="46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ169" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK169" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="AK169" s="44" t="s">
-        <v>500</v>
-      </c>
       <c r="AL169" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="38"/>
       <c r="B172" s="158" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C172" s="158"/>
       <c r="D172" s="158"/>
@@ -38806,7 +38810,7 @@
         <v>2</v>
       </c>
       <c r="AL175" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38854,7 +38858,7 @@
         <v>2</v>
       </c>
       <c r="AL176" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38862,7 +38866,7 @@
         <v>208</v>
       </c>
       <c r="B177" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C177" s="287"/>
       <c r="D177" s="287"/>
@@ -38904,7 +38908,7 @@
         <v>2</v>
       </c>
       <c r="AL177" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38912,7 +38916,7 @@
         <v>209</v>
       </c>
       <c r="B178" s="244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C178" s="245"/>
       <c r="D178" s="245"/>
@@ -38930,13 +38934,13 @@
       <c r="P178" s="245"/>
       <c r="Q178" s="246"/>
       <c r="R178" s="244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S178" s="245"/>
       <c r="T178" s="245"/>
       <c r="U178" s="246"/>
       <c r="V178" s="244" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W178" s="245"/>
       <c r="X178" s="245"/>
@@ -38948,19 +38952,19 @@
       <c r="AB178" s="245"/>
       <c r="AC178" s="246"/>
       <c r="AD178" s="244" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE178" s="245"/>
       <c r="AF178" s="245"/>
       <c r="AG178" s="246"/>
       <c r="AJ178" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK178" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL178" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -38968,7 +38972,7 @@
         <v>210</v>
       </c>
       <c r="B179" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C179" s="245"/>
       <c r="D179" s="245"/>
@@ -38986,7 +38990,7 @@
       <c r="P179" s="245"/>
       <c r="Q179" s="246"/>
       <c r="R179" s="244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S179" s="245"/>
       <c r="T179" s="245"/>
@@ -38996,7 +39000,7 @@
       <c r="X179" s="245"/>
       <c r="Y179" s="246"/>
       <c r="Z179" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA179" s="245"/>
       <c r="AB179" s="245"/>
@@ -39006,13 +39010,13 @@
       <c r="AF179" s="245"/>
       <c r="AG179" s="246"/>
       <c r="AJ179" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK179" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL179" s="46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39020,7 +39024,7 @@
         <v>251</v>
       </c>
       <c r="B180" s="244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C180" s="245"/>
       <c r="D180" s="245"/>
@@ -39038,7 +39042,7 @@
       <c r="P180" s="245"/>
       <c r="Q180" s="246"/>
       <c r="R180" s="244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S180" s="245"/>
       <c r="T180" s="245"/>
@@ -39059,10 +39063,10 @@
         <v>202</v>
       </c>
       <c r="AK180" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL180" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL180" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39070,7 +39074,7 @@
         <v>252</v>
       </c>
       <c r="B181" s="244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C181" s="245"/>
       <c r="D181" s="245"/>
@@ -39104,13 +39108,13 @@
       <c r="AF181" s="245"/>
       <c r="AG181" s="246"/>
       <c r="AJ181" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK181" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL181" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39118,7 +39122,7 @@
         <v>253</v>
       </c>
       <c r="B182" s="244" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C182" s="245"/>
       <c r="D182" s="245"/>
@@ -39154,13 +39158,13 @@
       <c r="AF182" s="245"/>
       <c r="AG182" s="246"/>
       <c r="AJ182" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK182" s="44">
         <v>2</v>
       </c>
       <c r="AL182" s="46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39186,7 +39190,7 @@
       <c r="P183" s="245"/>
       <c r="Q183" s="246"/>
       <c r="R183" s="244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S183" s="245"/>
       <c r="T183" s="245"/>
@@ -39204,13 +39208,13 @@
       <c r="AF183" s="245"/>
       <c r="AG183" s="246"/>
       <c r="AJ183" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK183" s="44">
         <v>1</v>
       </c>
       <c r="AL183" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39218,7 +39222,7 @@
         <v>255</v>
       </c>
       <c r="B184" s="244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C184" s="245"/>
       <c r="D184" s="245"/>
@@ -39258,7 +39262,7 @@
         <v>1</v>
       </c>
       <c r="AL184" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39266,7 +39270,7 @@
         <v>256</v>
       </c>
       <c r="B185" s="244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C185" s="245"/>
       <c r="D185" s="245"/>
@@ -39300,13 +39304,13 @@
       <c r="AF185" s="245"/>
       <c r="AG185" s="246"/>
       <c r="AJ185" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK185" s="44">
         <v>2</v>
       </c>
       <c r="AL185" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39314,7 +39318,7 @@
         <v>257</v>
       </c>
       <c r="B186" s="244" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C186" s="245"/>
       <c r="D186" s="245"/>
@@ -39332,7 +39336,7 @@
       <c r="P186" s="245"/>
       <c r="Q186" s="246"/>
       <c r="R186" s="244" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S186" s="245"/>
       <c r="T186" s="245"/>
@@ -39342,7 +39346,7 @@
       <c r="X186" s="245"/>
       <c r="Y186" s="246"/>
       <c r="Z186" s="244" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA186" s="245"/>
       <c r="AB186" s="245"/>
@@ -39352,13 +39356,13 @@
       <c r="AF186" s="245"/>
       <c r="AG186" s="246"/>
       <c r="AJ186" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK186" s="44">
         <v>8</v>
       </c>
       <c r="AL186" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39366,7 +39370,7 @@
         <v>258</v>
       </c>
       <c r="B187" s="244" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C187" s="245"/>
       <c r="D187" s="245"/>
@@ -39406,7 +39410,7 @@
         <v>4</v>
       </c>
       <c r="AL187" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39414,7 +39418,7 @@
         <v>259</v>
       </c>
       <c r="B188" s="244" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C188" s="245"/>
       <c r="D188" s="245"/>
@@ -39448,13 +39452,13 @@
       <c r="AF188" s="245"/>
       <c r="AG188" s="246"/>
       <c r="AJ188" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK188" s="44">
         <v>10</v>
       </c>
       <c r="AL188" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39462,7 +39466,7 @@
         <v>260</v>
       </c>
       <c r="B189" s="244" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C189" s="245"/>
       <c r="D189" s="245"/>
@@ -39480,7 +39484,7 @@
       <c r="P189" s="245"/>
       <c r="Q189" s="246"/>
       <c r="R189" s="240" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S189" s="240"/>
       <c r="T189" s="240"/>
@@ -39490,7 +39494,7 @@
       <c r="X189" s="240"/>
       <c r="Y189" s="240"/>
       <c r="Z189" s="240" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AA189" s="240"/>
       <c r="AB189" s="240"/>
@@ -39500,13 +39504,13 @@
       <c r="AF189" s="240"/>
       <c r="AG189" s="240"/>
       <c r="AJ189" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK189" s="44">
         <v>2</v>
       </c>
       <c r="AL189" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39520,7 +39524,7 @@
       <c r="D190" s="259"/>
       <c r="E190" s="260"/>
       <c r="F190" s="258" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G190" s="259"/>
       <c r="H190" s="259"/>
@@ -39552,21 +39556,21 @@
       <c r="AF190" s="250"/>
       <c r="AG190" s="269"/>
       <c r="AJ190" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK190" s="44">
         <v>1</v>
       </c>
       <c r="AL190" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="308" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B191" s="249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C191" s="250"/>
       <c r="D191" s="250"/>
@@ -39600,13 +39604,13 @@
       <c r="AF191" s="251"/>
       <c r="AG191" s="252"/>
       <c r="AJ191" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK191" s="44">
         <v>1</v>
       </c>
       <c r="AL191" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39644,35 +39648,35 @@
       <c r="AF192" s="255"/>
       <c r="AG192" s="256"/>
       <c r="AJ192" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AK192" s="44">
         <v>10</v>
       </c>
       <c r="AL192" s="46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ193" s="44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AK193" s="44">
         <v>1</v>
       </c>
       <c r="AL193" s="46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ194" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AK194" s="51">
         <v>1</v>
       </c>
       <c r="AL194" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39680,21 +39684,21 @@
         <v>229</v>
       </c>
       <c r="AK195" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AL195" s="52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ196" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK196" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="AL196" s="52" t="s">
         <v>569</v>
-      </c>
-      <c r="AK196" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL196" s="52" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -39705,24 +39709,24 @@
         <v>1</v>
       </c>
       <c r="AL197" s="52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ198" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK198" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="AK198" s="44" t="s">
-        <v>500</v>
-      </c>
       <c r="AL198" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="288" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C203" s="288"/>
       <c r="D203" s="288"/>
@@ -40001,7 +40005,7 @@
         <v>2</v>
       </c>
       <c r="AL206" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40049,7 +40053,7 @@
         <v>2</v>
       </c>
       <c r="AL207" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40057,7 +40061,7 @@
         <v>208</v>
       </c>
       <c r="B208" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C208" s="287"/>
       <c r="D208" s="287"/>
@@ -40099,7 +40103,7 @@
         <v>2</v>
       </c>
       <c r="AL208" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40107,7 +40111,7 @@
         <v>209</v>
       </c>
       <c r="B209" s="239" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C209" s="239"/>
       <c r="D209" s="239"/>
@@ -40125,13 +40129,13 @@
       <c r="P209" s="239"/>
       <c r="Q209" s="239"/>
       <c r="R209" s="239" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S209" s="239"/>
       <c r="T209" s="239"/>
       <c r="U209" s="239"/>
       <c r="V209" s="239" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W209" s="239"/>
       <c r="X209" s="239"/>
@@ -40143,19 +40147,19 @@
       <c r="AB209" s="239"/>
       <c r="AC209" s="239"/>
       <c r="AD209" s="239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE209" s="239"/>
       <c r="AF209" s="239"/>
       <c r="AG209" s="239"/>
       <c r="AJ209" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK209" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL209" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40163,7 +40167,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="239" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C210" s="239"/>
       <c r="D210" s="239"/>
@@ -40181,7 +40185,7 @@
       <c r="P210" s="239"/>
       <c r="Q210" s="239"/>
       <c r="R210" s="239" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S210" s="239"/>
       <c r="T210" s="239"/>
@@ -40191,7 +40195,7 @@
       <c r="X210" s="239"/>
       <c r="Y210" s="239"/>
       <c r="Z210" s="239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AA210" s="239"/>
       <c r="AB210" s="239"/>
@@ -40201,13 +40205,13 @@
       <c r="AF210" s="239"/>
       <c r="AG210" s="239"/>
       <c r="AJ210" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK210" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL210" s="46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40215,7 +40219,7 @@
         <v>251</v>
       </c>
       <c r="B211" s="239" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C211" s="239"/>
       <c r="D211" s="239"/>
@@ -40233,7 +40237,7 @@
       <c r="P211" s="239"/>
       <c r="Q211" s="239"/>
       <c r="R211" s="239" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S211" s="239"/>
       <c r="T211" s="239"/>
@@ -40254,10 +40258,10 @@
         <v>202</v>
       </c>
       <c r="AK211" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL211" s="46" t="s">
         <v>449</v>
-      </c>
-      <c r="AL211" s="46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="212" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40265,7 +40269,7 @@
         <v>252</v>
       </c>
       <c r="B212" s="239" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C212" s="239"/>
       <c r="D212" s="239"/>
@@ -40299,13 +40303,13 @@
       <c r="AF212" s="239"/>
       <c r="AG212" s="239"/>
       <c r="AJ212" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK212" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL212" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="213" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40313,7 +40317,7 @@
         <v>253</v>
       </c>
       <c r="B213" s="239" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C213" s="239"/>
       <c r="D213" s="239"/>
@@ -40349,13 +40353,13 @@
       <c r="AF213" s="239"/>
       <c r="AG213" s="239"/>
       <c r="AJ213" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK213" s="44">
         <v>2</v>
       </c>
       <c r="AL213" s="46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40381,7 +40385,7 @@
       <c r="P214" s="239"/>
       <c r="Q214" s="239"/>
       <c r="R214" s="239" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S214" s="239"/>
       <c r="T214" s="239"/>
@@ -40399,13 +40403,13 @@
       <c r="AF214" s="239"/>
       <c r="AG214" s="239"/>
       <c r="AJ214" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK214" s="44">
         <v>1</v>
       </c>
       <c r="AL214" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40413,7 +40417,7 @@
         <v>255</v>
       </c>
       <c r="B215" s="239" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C215" s="239"/>
       <c r="D215" s="239"/>
@@ -40453,7 +40457,7 @@
         <v>1</v>
       </c>
       <c r="AL215" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="216" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40461,7 +40465,7 @@
         <v>256</v>
       </c>
       <c r="B216" s="239" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C216" s="239"/>
       <c r="D216" s="239"/>
@@ -40495,13 +40499,13 @@
       <c r="AF216" s="239"/>
       <c r="AG216" s="239"/>
       <c r="AJ216" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK216" s="44">
         <v>2</v>
       </c>
       <c r="AL216" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40509,7 +40513,7 @@
         <v>257</v>
       </c>
       <c r="B217" s="239" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C217" s="239"/>
       <c r="D217" s="239"/>
@@ -40527,7 +40531,7 @@
       <c r="P217" s="239"/>
       <c r="Q217" s="239"/>
       <c r="R217" s="239" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S217" s="239"/>
       <c r="T217" s="239"/>
@@ -40537,7 +40541,7 @@
       <c r="X217" s="239"/>
       <c r="Y217" s="239"/>
       <c r="Z217" s="239" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA217" s="239"/>
       <c r="AB217" s="239"/>
@@ -40547,13 +40551,13 @@
       <c r="AF217" s="239"/>
       <c r="AG217" s="239"/>
       <c r="AJ217" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AK217" s="44">
         <v>8</v>
       </c>
       <c r="AL217" s="46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="218" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40561,7 +40565,7 @@
         <v>258</v>
       </c>
       <c r="B218" s="239" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C218" s="239"/>
       <c r="D218" s="239"/>
@@ -40601,7 +40605,7 @@
         <v>4</v>
       </c>
       <c r="AL218" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40609,7 +40613,7 @@
         <v>259</v>
       </c>
       <c r="B219" s="239" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C219" s="239"/>
       <c r="D219" s="239"/>
@@ -40643,13 +40647,13 @@
       <c r="AF219" s="239"/>
       <c r="AG219" s="239"/>
       <c r="AJ219" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AK219" s="44">
         <v>10</v>
       </c>
       <c r="AL219" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40657,7 +40661,7 @@
         <v>260</v>
       </c>
       <c r="B220" s="239" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C220" s="239"/>
       <c r="D220" s="239"/>
@@ -40675,7 +40679,7 @@
       <c r="P220" s="239"/>
       <c r="Q220" s="239"/>
       <c r="R220" s="240" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S220" s="240"/>
       <c r="T220" s="240"/>
@@ -40693,13 +40697,13 @@
       <c r="AF220" s="240"/>
       <c r="AG220" s="240"/>
       <c r="AJ220" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AK220" s="44">
         <v>2</v>
       </c>
       <c r="AL220" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40717,7 +40721,7 @@
       <c r="H221" s="257"/>
       <c r="I221" s="257"/>
       <c r="J221" s="257" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K221" s="257"/>
       <c r="L221" s="257"/>
@@ -40727,7 +40731,7 @@
       <c r="P221" s="257"/>
       <c r="Q221" s="257"/>
       <c r="R221" s="257" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S221" s="257"/>
       <c r="T221" s="257"/>
@@ -40745,13 +40749,13 @@
       <c r="AF221" s="257"/>
       <c r="AG221" s="257"/>
       <c r="AJ221" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK221" s="44">
         <v>1</v>
       </c>
       <c r="AL221" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40759,7 +40763,7 @@
         <v>262</v>
       </c>
       <c r="B222" s="257" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C222" s="257"/>
       <c r="D222" s="257"/>
@@ -40777,7 +40781,7 @@
       <c r="P222" s="257"/>
       <c r="Q222" s="257"/>
       <c r="R222" s="257" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S222" s="257"/>
       <c r="T222" s="257"/>
@@ -40787,7 +40791,7 @@
       <c r="X222" s="257"/>
       <c r="Y222" s="257"/>
       <c r="Z222" s="257" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AA222" s="257"/>
       <c r="AB222" s="257"/>
@@ -40797,13 +40801,13 @@
       <c r="AF222" s="257"/>
       <c r="AG222" s="257"/>
       <c r="AJ222" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AK222" s="44">
         <v>1</v>
       </c>
       <c r="AL222" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40811,7 +40815,7 @@
         <v>263</v>
       </c>
       <c r="B223" s="257" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C223" s="257"/>
       <c r="D223" s="257"/>
@@ -40845,13 +40849,13 @@
       <c r="AF223" s="257"/>
       <c r="AG223" s="257"/>
       <c r="AJ223" s="44" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AK223" s="44">
         <v>10</v>
       </c>
       <c r="AL223" s="46" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40859,7 +40863,7 @@
         <v>264</v>
       </c>
       <c r="B224" s="239" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C224" s="239"/>
       <c r="D224" s="239"/>
@@ -40885,7 +40889,7 @@
       <c r="X224" s="239"/>
       <c r="Y224" s="239"/>
       <c r="Z224" s="239" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AA224" s="239"/>
       <c r="AB224" s="239"/>
@@ -40895,13 +40899,13 @@
       <c r="AF224" s="239"/>
       <c r="AG224" s="239"/>
       <c r="AJ224" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AK224" s="44">
         <v>2</v>
       </c>
       <c r="AL224" s="46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="225" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -40909,7 +40913,7 @@
         <v>265</v>
       </c>
       <c r="B225" s="239" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C225" s="239"/>
       <c r="D225" s="239"/>
@@ -40919,7 +40923,7 @@
       <c r="H225" s="239"/>
       <c r="I225" s="239"/>
       <c r="J225" s="257" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K225" s="257"/>
       <c r="L225" s="257"/>
@@ -40951,73 +40955,73 @@
         <v>1</v>
       </c>
       <c r="AL225" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ226" s="50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK226" s="51">
         <v>1</v>
       </c>
       <c r="AL226" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="227" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ227" s="49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AK227" s="44">
         <v>4</v>
       </c>
       <c r="AL227" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ228" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK228" s="44">
         <v>1</v>
       </c>
       <c r="AL228" s="52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ229" s="49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AK229" s="44">
         <v>8</v>
       </c>
       <c r="AL229" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="230" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ230" s="49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AK230" s="44">
         <v>2</v>
       </c>
       <c r="AL230" s="52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AJ231" s="49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK231" s="44">
         <v>1</v>
       </c>
       <c r="AL231" s="52" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
